--- a/public/preprocessing/@mutttt_.xlsx
+++ b/public/preprocessing/@mutttt_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15550</v>
+        <v>26317</v>
       </c>
       <c r="C2" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bangun pagi ga ngantuk lagi tapi laper banget</t>
+          <t>rt dalam suatu hubungan selalu berusaha buat setia sama satu orang aja mau seburuk apapun ya terima kalo gak bisa teri</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['bangun', 'pagi', 'ga', 'ngantuk', 'lagi', 'tapi', 'laper', 'banget']</t>
+          <t>['rt', 'dalam', 'suatu', 'hubungan', 'selalu', 'berusaha', 'buat', 'setia', 'sama', 'satu', 'orang', 'aja', 'mau', 'seburuk', 'apapun', 'ya', 'terima', 'kalo', 'gak', 'bisa', 'teri']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'suatu', 'hubungan', 'selalu', 'berusaha', 'buat', 'setia', 'sama', 'satu', 'orang', 'saja', 'mau', 'seburuk', 'apapun', 'ya', 'terima', 'kalau', 'tidak', 'bisa', 'teri']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['bangun', 'pagi', 'ngantuk', 'laper', 'banget']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['bangun', 'pagi', 'ngantuk', 'laper', 'banget']</t>
+          <t>['hubungan', 'berusaha', 'setia', 'orang', 'seburuk', 'apapun', 'terima', 'teri']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['hubung', 'usaha', 'setia', 'orang', 'buruk', 'apa', 'terima', 'teri']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15551</v>
+        <v>26318</v>
       </c>
       <c r="C3" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt pas lg stres tuh pengen makan yg pedes gak sih gua iya wk rupanya capsaicin yg memicu pedas menipu otak dg bilang woi tuh</t>
+          <t>ini knp dah kalo di rumah doyan bgt bolak balik kamar mandi mlm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'pas', 'lg', 'stres', 'tuh', 'pengen', 'makan', 'yg', 'pedes', 'gak', 'sih', 'gua', 'iya', 'wk', 'rupanya', 'capsaicin', 'yg', 'memicu', 'pedas', 'menipu', 'otak', 'dg', 'bilang', 'woi', 'tuh']</t>
+          <t>['ini', 'knp', 'dah', 'kalo', 'di', 'rumah', 'doyan', 'bgt', 'bolak', 'balik', 'kamar', 'mandi', 'mlm']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 23 samples and 25 outcomes&gt;</t>
+          <t>['ini', 'kenapa', 'sudah', 'kalau', 'di', 'rumah', 'suka', 'banget', 'bolak', 'balik', 'kamar', 'mandi', 'malam']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['pas', 'lg', 'stres', 'pengen', 'makan', 'pedes', 'gua', 'iya', 'wk', 'capsaicin', 'memicu', 'pedas', 'menipu', 'otak', 'woi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['pas', 'lg', 'stres', 'ken', 'makan', 'pedes', 'gua', 'iya', 'wk', 'capsaicin', 'picu', 'pedas', 'tipu', 'otak', 'woi']</t>
+          <t>['rumah', 'suka', 'banget', 'bolak', 'kamar', 'mandi', 'malam']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['rumah', 'suka', 'banget', 'bolak', 'kamar', 'mandi', 'malam']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15552</v>
+        <v>26319</v>
       </c>
       <c r="C4" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>apakah aku bukan cwk</t>
+          <t>rt kalau belum siap berkomitmen lebih baik gausah dipaksain yang kamu libatkan itu hati dan perasaan orang sakitnya bukan mai</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['apakah', 'aku', 'bukan', 'cwk']</t>
+          <t>['rt', 'kalau', 'belum', 'siap', 'berkomitmen', 'lebih', 'baik', 'gausah', 'dipaksain', 'yang', 'kamu', 'libatkan', 'itu', 'hati', 'dan', 'perasaan', 'orang', 'sakitnya', 'bukan', 'mai']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'kalau', 'belum', 'siap', 'berkomitmen', 'lebih', 'baik', 'tidak, usah', 'dipaksain', 'yang', 'kamu', 'libatkan', 'itu', 'hati', 'dan', 'perasaan', 'orang', 'sakitnya', 'bukan', 'mau']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['cwk']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['cwk']</t>
+          <t>['berkomitmen', 'tidak, usah', 'dipaksain', 'libatkan', 'hati', 'perasaan', 'orang', 'sakitnya']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['komitmen', 'tidak usah', 'dipaksain', 'libat', 'hati', 'asa', 'orang', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15553</v>
+        <v>26320</v>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt tuhan yo mbuh yooo</t>
+          <t>rt dibalik kata gapapa ada hasrat yang besar buat ceritain semua yang dirasain cuma karena ngga enak pengen cerita makany</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'tuhan', 'yo', 'mbuh', 'yooo']</t>
+          <t>['rt', 'dibalik', 'kata', 'gapapa', 'ada', 'hasrat', 'yang', 'besar', 'buat', 'ceritain', 'semua', 'yang', 'dirasain', 'cuma', 'karena', 'ngga', 'enak', 'pengen', 'cerita', 'makany']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'dibalik', 'kata', 'tidak, apa, apa', 'ada', 'hasrat', 'yang', 'besar', 'buat', 'ceritakan', 'semua', 'yang', 'dirasain', 'cuma', 'karena', 'tidak', 'enak', 'ingin', 'cerita', 'makanya']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['tuhan', 'yo', 'mbuh', 'yooo']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['tuhan', 'yo', 'mbuh', 'yooo']</t>
+          <t>['dibalik', 'tidak, apa, apa', 'hasrat', 'ceritakan', 'dirasain', 'enak', 'cerita']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['balik', 'tidak apa apa', 'hasrat', 'cerita', 'dirasain', 'enak', 'cerita']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15554</v>
+        <v>26321</v>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt semakin dewasa lo bakal ngerti enaknya punya temen yang ituitu aja yup its all about quality not quantity</t>
+          <t>kalo dikosan mentok mentok masalah kangen sama skripsi yg bikin gabisa tidur dan nangis tengah malem tapi kalo di</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'semakin', 'dewasa', 'lo', 'bakal', 'ngerti', 'enaknya', 'punya', 'temen', 'yang', 'ituitu', 'aja', 'yup', 'its', 'all', 'about', 'quality', 'not', 'quantity']</t>
+          <t>['kalo', 'dikosan', 'mentok', 'mentok', 'masalah', 'kangen', 'sama', 'skripsi', 'yg', 'bikin', 'gabisa', 'tidur', 'dan', 'nangis', 'tengah', 'malem', 'tapi', 'kalo', 'di']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kalau', 'dikosan', 'mentok', 'mentok', 'masalah', 'kangen', 'sama', 'skripsi', 'yang', 'bikin', 'tidak, bisa', 'tidur', 'dan', 'menangis', 'tengah', 'malam', 'tapi', 'kalau', 'di']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['dewasa', 'lo', 'ngerti', 'enaknya', 'temen', 'ituitu', 'yup', 'its', 'all', 'about', 'quality', 'not', 'quantity']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['dewasa', 'lo', 'ngerti', 'enak', 'temen', 'ituitu', 'yup', 'its', 'all', 'about', 'quality', 'not', 'quantity']</t>
+          <t>['dikosan', 'mentok', 'mentok', 'kangen', 'skripsi', 'tidak, bisa', 'tidur', 'menangis', 'malam']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['dikosan', 'mentok', 'mentok', 'kangen', 'skripsi', 'tidak bisa', 'tidur', 'menang', 'malam']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15555</v>
+        <v>26322</v>
       </c>
       <c r="C7" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kadang mikir juga si abis kelar skripsi mo ngapain hmm padahal blm finish</t>
+          <t>dari pengalaman kakakkakakku semoga aku bisa mendapat jodoh yang bener bisa bikin kedua orang tuaku juga bangga memilikinya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kadang', 'mikir', 'juga', 'si', 'abis', 'kelar', 'skripsi', 'mo', 'ngapain', 'hmm', 'padahal', 'blm', 'finish']</t>
+          <t>['dari', 'pengalaman', 'kakakkakakku', 'semoga', 'aku', 'bisa', 'mendapat', 'jodoh', 'yang', 'bener', 'bisa', 'bikin', 'kedua', 'orang', 'tuaku', 'juga', 'bangga', 'memilikinya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['dari', 'pengalaman', 'kakakkakakku', 'semoga', 'aku', 'bisa', 'mendapat', 'jodoh', 'yang', 'benar', 'bisa', 'bikin', 'kedua', 'orang', 'tuaku', 'juga', 'bangga', 'memilikinya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kadang', 'mikir', 'abis', 'kelar', 'skripsi', 'mo', 'ngapain', 'hmm', 'blm', 'finish']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kadang', 'mikir', 'abis', 'kelar', 'skripsi', 'mo', 'ngapain', 'hmm', 'blm', 'finish']</t>
+          <t>['pengalaman', 'kakakkakakku', 'semoga', 'jodoh', 'orang', 'tuaku', 'bangga', 'memilikinya']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['alam', 'kakakkakakku', 'moga', 'jodoh', 'orang', 'tua', 'bangga', 'milik']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15556</v>
+        <v>26323</v>
       </c>
       <c r="C8" t="n">
-        <v>197</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>rt sengaja nundanunda lanjutin skripsi soalnya takut tibatiba kelar terus bingung mau ngapain</t>
-        </is>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'sengaja', 'nundanunda', 'lanjutin', 'skripsi', 'soalnya', 'takut', 'tibatiba', 'kelar', 'terus', 'bingung', 'mau', 'ngapain']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['sengaja', 'nundanunda', 'lanjutin', 'skripsi', 'takut', 'tibatiba', 'kelar', 'bingung', 'ngapain']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['sengaja', 'nundanunda', 'lanjutin', 'skripsi', 'takut', 'tibatiba', 'kelar', 'bingung', 'ngapain']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -727,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15557</v>
+        <v>26324</v>
       </c>
       <c r="C9" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>aku tiap malem</t>
+          <t>rt cewe kalo udah kepo tingkat stalkingnya bisa ngalahin agen fbi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['aku', 'tiap', 'malem']</t>
+          <t>['rt', 'cewe', 'kalo', 'udah', 'kepo', 'tingkat', 'stalkingnya', 'bisa', 'ngalahin', 'agen', 'fbi']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'cewek', 'kalau', 'sudah', 'ingin, tahu', 'tingkat', 'stalkingnya', 'bisa', 'mengalahkan', 'agen', 'fbi']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['malem']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['malem']</t>
+          <t>['cewek', 'ingin, tahu', 'tingkat', 'stalkingnya', 'mengalahkan', 'agen', 'fbi']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['cewek', 'ingin tahu', 'tingkat', 'stalkingnya', 'kalah', 'agen', 'fbi']</t>
         </is>
       </c>
     </row>
@@ -763,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15558</v>
+        <v>26325</v>
       </c>
       <c r="C10" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt selalu bilang ke diri sendiri yauda gpp kok semangat ya sabar ya dikit lagi padahal rasanya capek banget kek selalu</t>
+          <t>rt menikahlah dengan seseorang yang memahami bahwa mendengar setiap ceritamu adalah bagian penting yang tidak ingin dilewa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'selalu', 'bilang', 'ke', 'diri', 'sendiri', 'yauda', 'gpp', 'kok', 'semangat', 'ya', 'sabar', 'ya', 'dikit', 'lagi', 'padahal', 'rasanya', 'capek', 'banget', 'kek', 'selalu']</t>
+          <t>['rt', 'menikahlah', 'dengan', 'seseorang', 'yang', 'memahami', 'bahwa', 'mendengar', 'setiap', 'ceritamu', 'adalah', 'bagian', 'penting', 'yang', 'tidak', 'ingin', 'dilewa']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'menikahlah', 'dengan', 'seseorang', 'yang', 'memahami', 'bahwa', 'mendengar', 'setiap', 'ceritamu', 'adalah', 'bagian', 'penting', 'yang', 'tidak', 'ingin', 'dilewa']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['yauda', 'gpp', 'semangat', 'sabar', 'dikit', 'capek', 'banget', 'kek']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['yauda', 'gpp', 'semangat', 'sabar', 'dikit', 'capek', 'banget', 'kek']</t>
+          <t>['menikahlah', 'memahami', 'mendengar', 'ceritamu', 'dilewa']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['nikah', 'paham', 'dengar', 'cerita', 'lewa']</t>
         </is>
       </c>
     </row>
@@ -799,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15559</v>
+        <v>26326</v>
       </c>
       <c r="C11" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bengbeng mini naks banget porisinya pas buat kali gigitan aaaaa</t>
+          <t>rt selain cuman jadi temen chattingan peran mu dalam hidup dia apa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'buat', 'kali', 'gigitan', 'aaaaa']</t>
+          <t>['rt', 'selain', 'cuman', 'jadi', 'temen', 'chattingan', 'peran', 'mu', 'dalam', 'hidup', 'dia', 'apa']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'selain', 'cuma', 'jadi', 'teman', 'chattingan', 'peran', 'mu', 'dalam', 'hidup', 'dia', 'apa']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'kali', 'gigitan', 'aaaaa']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'kali', 'gigit', 'aaaaa']</t>
+          <t>['teman', 'chattingan', 'peran', 'mu', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['teman', 'chattingan', 'peran', 'mu', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -835,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15560</v>
+        <v>26327</v>
       </c>
       <c r="C12" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt joo self reward terbaik untuk diri sendiri tidur seharian</t>
+          <t>rt punya temen yang bisa ngefotoin bagus adalah sebuah privilege</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'joo', 'self', 'reward', 'terbaik', 'untuk', 'diri', 'sendiri', 'tidur', 'seharian']</t>
+          <t>['rt', 'punya', 'temen', 'yang', 'bisa', 'ngefotoin', 'bagus', 'adalah', 'sebuah', 'privilege']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'punya', 'teman', 'yang', 'bisa', 'ngefotoin', 'bagus', 'adalah', 'sebuah', 'privilege']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['joo', 'self', 'reward', 'terbaik', 'tidur', 'seharian']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['joo', 'self', 'reward', 'baik', 'tidur', 'hari']</t>
+          <t>['teman', 'ngefotoin', 'bagus', 'privilege']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['teman', 'ngefotoin', 'bagus', 'privilege']</t>
         </is>
       </c>
     </row>
@@ -871,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15561</v>
+        <v>26328</v>
       </c>
       <c r="C13" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt kayaknya seru kalo rumah kita deketan bisa ketemu tanpa harus nunggu berbulanbulan lamanya</t>
+          <t>rt ada yang butuh website buat ngelihat grammar udah benar atau belum ga nie aku ada</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'kayaknya', 'seru', 'kalo', 'rumah', 'kita', 'deketan', 'bisa', 'ketemu', 'tanpa', 'harus', 'nunggu', 'berbulanbulan', 'lamanya']</t>
+          <t>['rt', 'ada', 'yang', 'butuh', 'website', 'buat', 'ngelihat', 'grammar', 'udah', 'benar', 'atau', 'belum', 'ga', 'nie', 'aku', 'ada']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'ada', 'yang', 'butuh', 'website', 'buat', 'melihat', 'grammar', 'sudah', 'benar', 'atau', 'belum', 'tidak', 'nih', 'aku', 'ada']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['kayaknya', 'seru', 'rumah', 'deketan', 'ketemu', 'nunggu', 'berbulanbulan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kayak', 'seru', 'rumah', 'deketan', 'ketemu', 'nunggu', 'berbulanbulan']</t>
+          <t>['butuh', 'website', 'grammar']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['butuh', 'website', 'grammar']</t>
         </is>
       </c>
     </row>
@@ -907,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15562</v>
+        <v>26329</v>
       </c>
       <c r="C14" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt its okay to not be okay someday everythings will be fine</t>
+          <t>rt makin dewasa makin bisa menerima apa adanya</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'its', 'okay', 'to', 'not', 'be', 'okay', 'someday', 'everythings', 'will', 'be', 'fine']</t>
+          <t>['rt', 'makin', 'dewasa', 'makin', 'bisa', 'menerima', 'apa', 'adanya']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'makin', 'dewasa', 'makin', 'bisa', 'menerima', 'apa', 'adanya']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['its', 'okay', 'to', 'not', 'be', 'okay', 'someday', 'everythings', 'will', 'be', 'fine']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['its', 'okay', 'to', 'not', 'be', 'okay', 'someday', 'everythings', 'will', 'be', 'fine']</t>
+          <t>['dewasa', 'menerima']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['dewasa', 'terima']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15563</v>
+        <v>26330</v>
       </c>
       <c r="C15" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt semarahmarahnya aku sama pasangan setiap kali mau ngomong selalu mikir ini nyakitin dia ga ya</t>
+          <t>ampuh banget gils untung nemu ini sebelum sidang</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'semarahmarahnya', 'aku', 'sama', 'pasangan', 'setiap', 'kali', 'mau', 'ngomong', 'selalu', 'mikir', 'ini', 'nyakitin', 'dia', 'ga', 'ya']</t>
+          <t>['ampuh', 'banget', 'gils', 'untung', 'nemu', 'ini', 'sebelum', 'sidang']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['ampuh', 'banget', 'gila', 'untung', 'menemukan', 'ini', 'sebelum', 'sidang']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['semarahmarahnya', 'pasangan', 'kali', 'ngomong', 'mikir', 'nyakitin']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['semarahmarahnya', 'pasang', 'kali', 'ngomong', 'mikir', 'nyakitin']</t>
+          <t>['ampuh', 'banget', 'gila', 'untung', 'menemukan', 'sidang']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['ampuh', 'banget', 'gila', 'untung', 'temu', 'sidang']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15564</v>
+        <v>26331</v>
       </c>
       <c r="C16" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt kapan nikah pertanyaan sejuta umat yang beberapa di antara kalian pasti sebel kalo ditanya gitu sama gua dulu juga gitu</t>
+          <t>rt ternyata ini yang namanya bahagia alhamdulillah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'kapan', 'nikah', 'pertanyaan', 'sejuta', 'umat', 'yang', 'beberapa', 'di', 'antara', 'kalian', 'pasti', 'sebel', 'kalo', 'ditanya', 'gitu', 'sama', 'gua', 'dulu', 'juga', 'gitu']</t>
+          <t>['rt', 'ternyata', 'ini', 'yang', 'namanya', 'bahagia', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'ternyata', 'ini', 'yang', 'namanya', 'bahagia', 'alhamdulillah']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['nikah', 'sejuta', 'umat', 'sebel', 'gitu', 'gua', 'gitu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['nikah', 'juta', 'umat', 'sebel', 'gitu', 'gua', 'gitu']</t>
+          <t>['namanya', 'bahagia', 'alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['nama', 'bahagia', 'alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15565</v>
+        <v>26332</v>
       </c>
       <c r="C17" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt joo seringkali ngerjain sesuatu itu sesuai dengan jadwal mood</t>
+          <t>rt  boy tells you  man shows you remember that</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'joo', 'seringkali', 'ngerjain', 'sesuatu', 'itu', 'sesuai', 'dengan', 'jadwal', 'mood']</t>
+          <t>['rt', 'boy', 'tells', 'you', 'man', 'shows', 'you', 'remember', 'that']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'boy', 'tells', 'kamu', 'man', 'shows', 'kamu', 'remember', 'that']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['joo', 'seringkali', 'ngerjain', 'sesuai', 'jadwal', 'mood']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['joo', 'seringkali', 'ngerjain', 'sesuai', 'jadwal', 'mood']</t>
+          <t>['boy', 'tells', 'man', 'shows', 'remember', 'that']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['boy', 'tells', 'man', 'shows', 'remember', 'that']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15566</v>
+        <v>26333</v>
       </c>
       <c r="C18" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt dari nissa sabyan dan ayus aku gamau belajar soalnya setia dan bucin sama satu orang itu enak banget</t>
+          <t>bismillah untuk hari esok semoga menjadi hari bahagia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'dari', 'nissa', 'sabyan', 'dan', 'ayus', 'aku', 'gamau', 'belajar', 'soalnya', 'setia', 'dan', 'bucin', 'sama', 'satu', 'orang', 'itu', 'enak', 'banget']</t>
+          <t>['bismillah', 'untuk', 'hari', 'esok', 'semoga', 'menjadi', 'hari', 'bahagia']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['bismillah', 'untuk', 'hari', 'esok', 'semoga', 'menjadi', 'hari', 'bahagia']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['nissa', 'sabyan', 'ayus', 'gamau', 'belajar', 'setia', 'bucin', 'orang', 'enak', 'banget']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['nissa', 'sabyan', 'ayus', 'gamau', 'ajar', 'setia', 'bucin', 'orang', 'enak', 'banget']</t>
+          <t>['bismillah', 'esok', 'semoga', 'bahagia']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['bismillah', 'esok', 'moga', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15567</v>
+        <v>26334</v>
       </c>
       <c r="C19" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>bisa ngga si dunia berenti becandanya aku cape</t>
+          <t>rt cewe kalo udah cinta banget sama cowo ternyata lebih banyak nangisnya daripada bahagianya</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['bisa', 'ngga', 'si', 'dunia', 'berenti', 'becandanya', 'aku', 'cape']</t>
+          <t>['rt', 'cewe', 'kalo', 'udah', 'cinta', 'banget', 'sama', 'cowo', 'ternyata', 'lebih', 'banyak', 'nangisnya', 'daripada', 'bahagianya']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'cewek', 'kalau', 'sudah', 'cinta', 'banget', 'sama', 'cowok', 'ternyata', 'lebih', 'banyak', 'nangisnya', 'daripada', 'bahagianya']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['ngga', 'dunia', 'berenti', 'becandanya', 'cape']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['ngga', 'dunia', 'renti', 'becandanya', 'cape']</t>
+          <t>['cewek', 'cinta', 'banget', 'cowok', 'nangisnya', 'bahagianya']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['cewek', 'cinta', 'banget', 'cowok', 'nang', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15568</v>
+        <v>26335</v>
       </c>
       <c r="C20" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>kzlllll sama yg udah nambahin ngadi di sk ku heh tolong lah lain kali lebih teliti kalo masukkin nama di sk</t>
+          <t>ini besok sidang tapi jamnya belom fix aku harus apa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kzlllll', 'sama', 'yg', 'udah', 'nambahin', 'ngadi', 'di', 'sk', 'ku', 'heh', 'tolong', 'lah', 'lain', 'kali', 'lebih', 'teliti', 'kalo', 'masukkin', 'nama', 'di', 'sk']</t>
+          <t>['ini', 'besok', 'sidang', 'tapi', 'jamnya', 'belom', 'fix', 'aku', 'harus', 'apa']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['ini', 'besok', 'sidang', 'tapi', 'jamnya', 'belum', 'fix', 'aku', 'harus', 'apa']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['kzlllll', 'udah', 'nambahin', 'ngadi', 'sk', 'ku', 'heh', 'tolong', 'kali', 'teliti', 'masukkin', 'nama', 'sk']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kzlllll', 'udah', 'nambahin', 'ngadi', 'sk', 'ku', 'heh', 'tolong', 'kali', 'teliti', 'masukkin', 'nama', 'sk']</t>
+          <t>['besok', 'sidang', 'jamnya', 'fix']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['besok', 'sidang', 'jam', 'fix']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15569</v>
+        <v>26336</v>
       </c>
       <c r="C21" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ngadingadi bgt demi apaaaaa</t>
+          <t>di antara semua yg aku kirimin undangan ada yang paling aku harapin bisa dateng sahabat yg awal banget dan hampi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['ngadingadi', 'bgt', 'demi', 'apaaaaa']</t>
+          <t>['di', 'antara', 'semua', 'yg', 'aku', 'kirimin', 'undangan', 'ada', 'yang', 'paling', 'aku', 'harapin', 'bisa', 'dateng', 'sahabat', 'yg', 'awal', 'banget', 'dan', 'hampi']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['di', 'antara', 'semua', 'yang', 'aku', 'kirimkan', 'undangan', 'ada', 'yang', 'paling', 'aku', 'harapin', 'bisa', 'datang', 'sahabat', 'yang', 'awal', 'banget', 'dan', 'hampi']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['ngadingadi', 'bgt', 'apaaaaa']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['ngadingadi', 'bgt', 'apaaaaa']</t>
+          <t>['kirimkan', 'undangan', 'harapin', 'sahabat', 'banget', 'hampi']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kirim', 'undang', 'harapin', 'sahabat', 'banget', 'hampi']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15570</v>
+        <v>26337</v>
       </c>
       <c r="C22" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt pernah ga ketemu seseorang yang bener tulus ketika lo capek ada masalah dia jadi rumah tempat lo pulang senyaman itu</t>
+          <t>rt nih buat kalian yang suka susah tidur</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'pernah', 'ga', 'ketemu', 'seseorang', 'yang', 'bener', 'tulus', 'ketika', 'lo', 'capek', 'ada', 'masalah', 'dia', 'jadi', 'rumah', 'tempat', 'lo', 'pulang', 'senyaman', 'itu']</t>
+          <t>['rt', 'nih', 'buat', 'kalian', 'yang', 'suka', 'susah', 'tidur']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'nih', 'buat', 'kalian', 'yang', 'suka', 'susah', 'tidur']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['ketemu', 'bener', 'tulus', 'lo', 'capek', 'rumah', 'lo', 'pulang', 'senyaman']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['ketemu', 'bener', 'tulus', 'lo', 'capek', 'rumah', 'lo', 'pulang', 'nyaman']</t>
+          <t>['suka', 'susah', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['suka', 'susah', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15571</v>
+        <v>26338</v>
       </c>
       <c r="C23" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt coba diurut dari prioritas kamu dalam mencari pasangan sifat setia rajindsb kebiasaan jam kerja pola makan </t>
+          <t>rt semakin dewasa ketika datang pertanyaan kamu bahagia nggak suka bingung jawabnya sebab semakin hari defenisi bahagia bag</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'coba', 'diurut', 'dari', 'prioritas', 'kamu', 'dalam', 'mencari', 'pasangan', 'sifat', 'setia', 'rajindsb', 'kebiasaan', 'jam', 'kerja', 'pola', 'makan']</t>
+          <t>['rt', 'semakin', 'dewasa', 'ketika', 'datang', 'pertanyaan', 'kamu', 'bahagia', 'nggak', 'suka', 'bingung', 'jawabnya', 'sebab', 'semakin', 'hari', 'defenisi', 'bahagia', 'bag']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'semakin', 'dewasa', 'ketika', 'datang', 'pertanyaan', 'kamu', 'bahagia', 'enggak', 'suka', 'bingung', 'jawabnya', 'sebab', 'semakin', 'hari', 'defenisi', 'bahagia', 'bag']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['coba', 'diurut', 'prioritas', 'mencari', 'pasangan', 'sifat', 'setia', 'rajindsb', 'kebiasaan', 'jam', 'kerja', 'pola', 'makan']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['coba', 'urut', 'prioritas', 'cari', 'pasang', 'sifat', 'setia', 'rajindsb', 'biasa', 'jam', 'kerja', 'pola', 'makan']</t>
+          <t>['dewasa', 'bahagia', 'suka', 'bingung', 'defenisi', 'bahagia', 'bag']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['dewasa', 'bahagia', 'suka', 'bingung', 'defenisi', 'bahagia', 'bag']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15572</v>
+        <v>26339</v>
       </c>
       <c r="C24" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt mood cwe akan bagus ketika diajak makan dan keliling kota</t>
+          <t>mending sidang</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'mood', 'cwe', 'akan', 'bagus', 'ketika', 'diajak', 'makan', 'dan', 'keliling', 'kota']</t>
+          <t>['mending', 'sidang']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['mending', 'sidang']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['mood', 'cwe', 'bagus', 'diajak', 'makan', 'keliling', 'kota']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['mood', 'cwe', 'bagus', 'ajak', 'makan', 'keliling', 'kota']</t>
+          <t>['mending', 'sidang']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['mending', 'sidang']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15573</v>
+        <v>26340</v>
       </c>
       <c r="C25" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt banyak platform media sosial baru tapi twitter tetep tempat terbaik buat berkeluh kesah</t>
+          <t>langit tak perlu menjelaskan bahwa ia tinggi gila kaget bgt sama perjuangannya proud of you</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'banyak', 'platform', 'media', 'sosial', 'baru', 'tapi', 'twitter', 'tetep', 'tempat', 'terbaik', 'buat', 'berkeluh', 'kesah']</t>
+          <t>['langit', 'tak', 'perlu', 'menjelaskan', 'bahwa', 'ia', 'tinggi', 'gila', 'kaget', 'bgt', 'sama', 'perjuangannya', 'proud', 'of', 'you']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['langit', 'tak', 'perlu', 'menjelaskan', 'bahwa', 'ia', 'tinggi', 'gila', 'kaget', 'banget', 'sama', 'perjuangannya', 'proud', 'of', 'kamu']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['platform', 'media', 'sosial', 'twitter', 'tetep', 'terbaik', 'berkeluh', 'kesah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['platform', 'media', 'sosial', 'twitter', 'tetep', 'baik', 'keluh', 'kesah']</t>
+          <t>['langit', 'gila', 'kaget', 'banget', 'perjuangannya', 'proud', 'of']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['langit', 'gila', 'kaget', 'banget', 'juang', 'proud', 'of']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15574</v>
+        <v>26341</v>
       </c>
       <c r="C26" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt prioritas utama sekarang adalah bertahan hidup</t>
+          <t>rt sekarang udah gak jaman nyari pacar tapi nyari temen hidup yang bisa berkomitmen bisa saling menghargai amp tidak meru</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'prioritas', 'utama', 'sekarang', 'adalah', 'bertahan', 'hidup']</t>
+          <t>['rt', 'sekarang', 'udah', 'gak', 'jaman', 'nyari', 'pacar', 'tapi', 'nyari', 'temen', 'hidup', 'yang', 'bisa', 'berkomitmen', 'bisa', 'saling', 'menghargai', 'amp', 'tidak', 'meru']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'sekarang', 'sudah', 'tidak', 'jaman', 'mencari', 'pacar', 'tapi', 'mencari', 'teman', 'hidup', 'yang', 'bisa', 'berkomitmen', 'bisa', 'saling', 'menghargai', 'amp', 'tidak', 'meru']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['prioritas', 'utama', 'bertahan', 'hidup']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['prioritas', 'utama', 'tahan', 'hidup']</t>
+          <t>['jaman', 'mencari', 'pacar', 'mencari', 'teman', 'hidup', 'berkomitmen', 'menghargai', 'meru']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['jaman', 'cari', 'pacar', 'cari', 'teman', 'hidup', 'komitmen', 'harga', 'meru']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15575</v>
+        <v>26342</v>
       </c>
       <c r="C27" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>semoga tidak berkurang atau hilang</t>
+          <t>rt kita remaja yang sedang dimabuk deadline</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['semoga', 'tidak', 'berkurang', 'atau', 'hilang']</t>
+          <t>['rt', 'kita', 'remaja', 'yang', 'sedang', 'dimabuk', 'deadline']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'kita', 'remaja', 'yang', 'sedang', 'dimabuk', 'deadline']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['semoga', 'berkurang', 'hilang']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['moga', 'kurang', 'hilang']</t>
+          <t>['remaja', 'dimabuk', 'deadline']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['remaja', 'mabuk', 'deadline']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15576</v>
+        <v>26343</v>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>apapun keputusannya harus siap</t>
+          <t>rt reminder for myself bencilah perilakunya bukan orangnya tidak mungkin manusia selamanya hitam melulu atau putih melulu jan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['apapun', 'keputusannya', 'harus', 'siap']</t>
+          <t>['rt', 'reminder', 'for', 'myself', 'bencilah', 'perilakunya', 'bukan', 'orangnya', 'tidak', 'mungkin', 'manusia', 'selamanya', 'hitam', 'melulu', 'atau', 'putih', 'melulu', 'jan']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'reminder', 'for', 'myself', 'bencilah', 'perilakunya', 'bukan', 'orangnya', 'tidak', 'mungkin', 'manusia', 'selamanya', 'hitam', 'melulu', 'atau', 'putih', 'melulu', 'jangan']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['apapun', 'keputusannya']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['apa', 'putus']</t>
+          <t>['reminder', 'for', 'myself', 'bencilah', 'perilakunya', 'orangnya', 'manusia', 'hitam', 'melulu', 'putih', 'melulu']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['reminder', 'for', 'myself', 'benci', 'perilaku', 'orang', 'manusia', 'hitam', 'melulu', 'putih', 'melulu']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15577</v>
+        <v>26344</v>
       </c>
       <c r="C29" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt orang yang bisa kamu harapkan untuk menyayangimu sepenuh hati ya cuma diri kamu sendiri</t>
+          <t>samain</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'orang', 'yang', 'bisa', 'kamu', 'harapkan', 'untuk', 'menyayangimu', 'sepenuh', 'hati', 'ya', 'cuma', 'diri', 'kamu', 'sendiri']</t>
+          <t>['samain']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['samakan']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['orang', 'harapkan', 'menyayangimu', 'sepenuh', 'hati']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['orang', 'harap', 'sayang', 'sepenuh', 'hati']</t>
+          <t>['samakan']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['sama']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15578</v>
+        <v>26345</v>
       </c>
       <c r="C30" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>me too</t>
+          <t>rt pernah ga mau ngerjain sesuatu trus nyalain laptop iya nyalain doang abis tuh lanjut maen hp</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['me', 'too']</t>
+          <t>['rt', 'pernah', 'ga', 'mau', 'ngerjain', 'sesuatu', 'trus', 'nyalain', 'laptop', 'iya', 'nyalain', 'doang', 'abis', 'tuh', 'lanjut', 'maen', 'hp']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'pernah', 'tidak', 'mau', 'mengerjakan', 'sesuatu', 'terus', 'menyalakan', 'laptop', 'iya', 'menyalakan', 'doang', 'habis', 'itu', 'lanjut', 'main', 'handphone']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['me', 'too']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['me', 'too']</t>
+          <t>['menyalakan', 'laptop', 'iya', 'menyalakan', 'doang', 'habis', 'main', 'handphone']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['nyala', 'laptop', 'iya', 'nyala', 'doang', 'habis', 'main', 'handphone']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15579</v>
+        <v>26346</v>
       </c>
       <c r="C31" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt mata sudah malam saatnya istirahat otak okee jumpa lagi pemirsa dalam acara halhal yang harusnya tidak kamu lakuka</t>
+          <t>rt yang suka bikin kecewa orang lain ekspektasi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'mata', 'sudah', 'malam', 'saatnya', 'istirahat', 'otak', 'okee', 'jumpa', 'lagi', 'pemirsa', 'dalam', 'acara', 'halhal', 'yang', 'harusnya', 'tidak', 'kamu', 'lakuka']</t>
+          <t>['rt', 'yang', 'suka', 'bikin', 'kecewa', 'orang', 'lain', 'ekspektasi']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'yang', 'suka', 'bikin', 'kecewa', 'orang', 'lain', 'ekspektasi']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['mata', 'malam', 'istirahat', 'otak', 'okee', 'jumpa', 'pemirsa', 'acara', 'halhal', 'lakuka']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mata', 'malam', 'istirahat', 'otak', 'okee', 'jumpa', 'pirsa', 'acara', 'halhal', 'lakuka']</t>
+          <t>['suka', 'kecewa', 'orang', 'ekspektasi']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['suka', 'kecewa', 'orang', 'ekspektasi']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15580</v>
+        <v>26347</v>
       </c>
       <c r="C32" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>antara pengen tidur laper dan insom jadi satu</t>
+          <t>enak banget bobo siang</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['antara', 'pengen', 'tidur', 'laper', 'dan', 'insom', 'jadi', 'satu']</t>
+          <t>['enak', 'banget', 'bobo', 'siang']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['enak', 'banget', 'tidur', 'siang']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['pengen', 'tidur', 'laper', 'insom']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['ken', 'tidur', 'laper', 'insom']</t>
+          <t>['enak', 'banget', 'tidur', 'siang']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['enak', 'banget', 'tidur', 'siang']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15581</v>
+        <v>26348</v>
       </c>
       <c r="C33" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>sabtu alhamdulillah for  good day</t>
+          <t>rt jembatan keledai kompres demam kompres hangat cedera kalau cederanya memicu inflamasi mis memar terkilir ha</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['sabtu', 'alhamdulillah', 'for', 'good', 'day']</t>
+          <t>['rt', 'jembatan', 'keledai', 'kompres', 'demam', 'kompres', 'hangat', 'cedera', 'kalau', 'cederanya', 'memicu', 'inflamasi', 'mis', 'memar', 'terkilir', 'ha']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'jembatan', 'keledai', 'kompres', 'demam', 'kompres', 'hangat', 'cedera', 'kalau', 'cederanya', 'memicu', 'inflamasi', 'mis', 'memar', 'terkilir', 'apa']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['sabtu', 'alhamdulillah', 'for', 'good', 'day']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['sabtu', 'alhamdulillah', 'for', 'good', 'day']</t>
+          <t>['jembatan', 'keledai', 'kompres', 'demam', 'kompres', 'hangat', 'cedera', 'cederanya', 'memicu', 'inflamasi', 'mis', 'memar', 'terkilir']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['jembatan', 'keledai', 'kompres', 'demam', 'kompres', 'hangat', 'cedera', 'cedera', 'picu', 'inflamasi', 'mis', 'memar', 'kilir']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15582</v>
+        <v>26349</v>
       </c>
       <c r="C34" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt sedikit gerak banyak magernya</t>
+          <t>rt kumpulan template ppt lucu oleh aku beserta link download  thread</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'sedikit', 'gerak', 'banyak', 'magernya']</t>
+          <t>['rt', 'kumpulan', 'template', 'ppt', 'lucu', 'oleh', 'aku', 'beserta', 'link', 'download', 'thread']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'kumpulan', 'template', 'ppt', 'lucu', 'oleh', 'aku', 'beserta', 'link', 'unduh', 'thread']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['gerak', 'magernya']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['gerak', 'magernya']</t>
+          <t>['kumpulan', 'template', 'ppt', 'lucu', 'beserta', 'link', 'unduh', 'thread']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kumpul', 'template', 'ppt', 'lucu', 'serta', 'link', 'unduh', 'thread']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15583</v>
+        <v>26350</v>
       </c>
       <c r="C35" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jam segini udah ngantuk bayi banget deh</t>
+          <t>cape banget nangis sejam</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['jam', 'segini', 'udah', 'ngantuk', 'bayi', 'banget', 'deh']</t>
+          <t>['cape', 'banget', 'nangis', 'sejam']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['cape', 'banget', 'menangis', 'sejam']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['jam', 'segini', 'udah', 'ngantuk', 'bayi', 'banget', 'deh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['jam', 'gin', 'udah', 'ngantuk', 'bayi', 'banget', 'deh']</t>
+          <t>['cape', 'banget', 'menangis', 'sejam']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['cape', 'banget', 'menang', 'jam']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15584</v>
+        <v>26351</v>
       </c>
       <c r="C36" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt aku tipe orang yang cuek dan gampang ilfeel ketika ada yang deketin tapi sekalinya aku udah suka sama seseorang bakalan buc</t>
+          <t>aku coba bilang lagi ya gausah kenapa cape akutu kalo di php mulu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'aku', 'tipe', 'orang', 'yang', 'cuek', 'dan', 'gampang', 'ilfeel', 'ketika', 'ada', 'yang', 'deketin', 'tapi', 'sekalinya', 'aku', 'udah', 'suka', 'sama', 'seseorang', 'bakalan', 'buc']</t>
+          <t>['aku', 'coba', 'bilang', 'lagi', 'ya', 'gausah', 'kenapa', 'cape', 'akutu', 'kalo', 'di', 'php', 'mulu']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['aku', 'coba', 'bilang', 'lagi', 'ya', 'tidak, usah', 'kenapa', 'cape', 'aku, itu', 'kalau', 'di', 'php', 'mulu']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['tipe', 'orang', 'cuek', 'gampang', 'ilfeel', 'deketin', 'sekalinya', 'udah', 'suka', 'buc']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['tipe', 'orang', 'cuek', 'gampang', 'ilfeel', 'deketin', 'sekali', 'udah', 'suka', 'buc']</t>
+          <t>['coba', 'tidak, usah', 'cape', 'aku, itu', 'php', 'mulu']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['coba', 'tidak usah', 'cape', 'aku itu', 'php', 'mulu']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15585</v>
+        <v>26352</v>
       </c>
       <c r="C37" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>laptop lemot banget heran sabar sabar</t>
+          <t>rt jangan lupa sebelum tidur overthinking dulu karena banyak hal yang harus dipikirkan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['laptop', 'lemot', 'banget', 'heran', 'sabar', 'sabar']</t>
+          <t>['rt', 'jangan', 'lupa', 'sebelum', 'tidur', 'overthinking', 'dulu', 'karena', 'banyak', 'hal', 'yang', 'harus', 'dipikirkan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'jangan', 'lupa', 'sebelum', 'tidur', 'overthinking', 'dulu', 'karena', 'banyak', 'hal', 'yang', 'harus', 'dipikirkan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['laptop', 'lemot', 'banget', 'heran', 'sabar', 'sabar']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['laptop', 'lot', 'banget', 'heran', 'sabar', 'sabar']</t>
+          <t>['lupa', 'tidur', 'overthinking', 'dipikirkan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['lupa', 'tidur', 'overthinking', 'pikir']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15586</v>
+        <v>26353</v>
       </c>
       <c r="C38" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kalo malem aku lagi begadang ngerjain sesuatu tp bapak udah bobo pasti bangun terus ke kamarku cuma nyuruh tidur sayang banget</t>
+          <t>rt anjuran menahan amarah atau sabar menurut rosulullah  thread</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kalo', 'malem', 'aku', 'lagi', 'begadang', 'ngerjain', 'sesuatu', 'tp', 'bapak', 'udah', 'bobo', 'pasti', 'bangun', 'terus', 'ke', 'kamarku', 'cuma', 'nyuruh', 'tidur', 'sayang', 'banget']</t>
+          <t>['rt', 'anjuran', 'menahan', 'amarah', 'atau', 'sabar', 'menurut', 'rosulullah', 'thread']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'anjuran', 'menahan', 'amarah', 'atau', 'sabar', 'menurut', 'rasulullah', 'thread']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['malem', 'begadang', 'ngerjain', 'tp', 'udah', 'bobo', 'bangun', 'kamarku', 'nyuruh', 'tidur', 'sayang', 'banget']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['malem', 'begadang', 'ngerjain', 'tp', 'udah', 'bobo', 'bangun', 'kamar', 'nyuruh', 'tidur', 'sayang', 'banget']</t>
+          <t>['anjuran', 'menahan', 'amarah', 'sabar', 'rasulullah', 'thread']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['anjur', 'tahan', 'amarah', 'sabar', 'rasulullah', 'thread']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15587</v>
+        <v>26354</v>
       </c>
       <c r="C39" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>pengertian setia komunikasi keterbukaan dan ga posesif</t>
+          <t>rt mood</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['pengertian', 'setia', 'komunikasi', 'keterbukaan', 'dan', 'ga', 'posesif']</t>
+          <t>['rt', 'mood']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'suasana, hati']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['pengertian', 'setia', 'komunikasi', 'keterbukaan', 'posesif']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['erti', 'setia', 'komunikasi', 'buka', 'posesif']</t>
+          <t>['suasana, hati']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['suasana hati']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15588</v>
+        <v>26355</v>
       </c>
       <c r="C40" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt stuck with you</t>
+          <t>rt nanti juga bakal bertemu dengan yang sefrekuensi sabar aja sih</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'stuck', 'with', 'you']</t>
+          <t>['rt', 'nanti', 'juga', 'bakal', 'bertemu', 'dengan', 'yang', 'sefrekuensi', 'sabar', 'aja', 'sih']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'nanti', 'juga', 'bakal', 'bertemu', 'dengan', 'yang', 'sefrekuensi', 'sabar', 'saja', 'sih']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['stuck', 'with', 'you']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['stuck', 'with', 'you']</t>
+          <t>['bertemu', 'sefrekuensi', 'sabar']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['temu', 'frekuensi', 'sabar']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15589</v>
+        <v>26356</v>
       </c>
       <c r="C41" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>mau aja asal ngga jauhjauh banget selisihnya</t>
+          <t>baru tau jadi fungsinya ini adalah untuk mainan tangan kiri waktu tangan kanan nyetabiloin</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['mau', 'aja', 'asal', 'ngga', 'jauhjauh', 'banget', 'selisihnya']</t>
+          <t>['baru', 'tau', 'jadi', 'fungsinya', 'ini', 'adalah', 'untuk', 'mainan', 'tangan', 'kiri', 'waktu', 'tangan', 'kanan', 'nyetabiloin']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['baru', 'tau', 'jadi', 'fungsinya', 'ini', 'adalah', 'untuk', 'mainan', 'tangan', 'kiri', 'waktu', 'tangan', 'kanan', 'nyetabiloin']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['ngga', 'jauhjauh', 'banget', 'selisihnya']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['ngga', 'jauhjauh', 'banget', 'selisih']</t>
+          <t>['fungsinya', 'mainan', 'tangan', 'kiri', 'tangan', 'kanan', 'nyetabiloin']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['fungsi', 'main', 'tangan', 'kiri', 'tangan', 'kanan', 'nyetabiloin']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15590</v>
+        <v>26357</v>
       </c>
       <c r="C42" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>makasih udah memberikan kepercayaan gaada yg bisa aku berikan kecuali rasa cinta kasih sayang dan keperc</t>
+          <t>yg di depan mataku hp bund jadi ngtwit mulu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['makasih', 'udah', 'memberikan', 'kepercayaan', 'gaada', 'yg', 'bisa', 'aku', 'berikan', 'kecuali', 'rasa', 'cinta', 'kasih', 'sayang', 'dan', 'keperc']</t>
+          <t>['yg', 'di', 'depan', 'mataku', 'hp', 'bund', 'jadi', 'ngtwit', 'mulu']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['yang', 'di', 'depan', 'mataku', 'handphone', 'bunda', 'jadi', 'ngtwit', 'mulu']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['makasih', 'udah', 'kepercayaan', 'gaada', 'kecuali', 'cinta', 'kasih', 'sayang', 'keperc']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['makasih', 'udah', 'percaya', 'gaada', 'kecuali', 'cinta', 'kasih', 'sayang', 'keperc']</t>
+          <t>['mataku', 'handphone', 'bunda', 'ngtwit', 'mulu']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['mata', 'handphone', 'bunda', 'ngtwit', 'mulu']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15591</v>
+        <v>26358</v>
       </c>
       <c r="C43" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>hujannya bikin khilaf ih bangun udah jam aja</t>
+          <t>definisi cowo polos mau ngasih something tapi nanya dulu yakali aku jawab kado channel orang dalem kerja di ma</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['hujannya', 'bikin', 'khilaf', 'ih', 'bangun', 'udah', 'jam', 'aja']</t>
+          <t>['definisi', 'cowo', 'polos', 'mau', 'ngasih', 'something', 'tapi', 'nanya', 'dulu', 'yakali', 'aku', 'jawab', 'kado', 'channel', 'orang', 'dalem', 'kerja', 'di', 'ma']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['definisi', 'cowok', 'polos', 'mau', 'memberi', 'something', 'tapi', 'bertanya', 'dulu', 'ya, kali', 'aku', 'jawab', 'kado', 'channel', 'orang', 'dalam', 'kerja', 'di', 'sama']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['hujannya', 'khilaf', 'ih', 'bangun', 'udah', 'jam']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['hujan', 'khilaf', 'ih', 'bangun', 'udah', 'jam']</t>
+          <t>['definisi', 'cowok', 'polos', 'something', 'ya, kali', 'kado', 'channel', 'orang', 'kerja']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['definisi', 'cowok', 'polos', 'something', 'ya kali', 'kado', 'channel', 'orang', 'kerja']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15592</v>
+        <v>26359</v>
       </c>
       <c r="C44" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>request dinyayiin lagu melamarmu dari sekarang boleh gasi nyanyinya sambil main gitar kyaknya ah mantap</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['request', 'dinyayiin', 'lagu', 'melamarmu', 'dari', 'sekarang', 'boleh', 'gasi', 'nyanyinya', 'sambil', 'main', 'gitar', 'kyaknya', 'ah', 'mantap']</t>
+          <t>['lg']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['lagi']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['request', 'dinyayiin', 'lagu', 'melamarmu', 'gasi', 'nyanyinya', 'main', 'gitar', 'kyaknya', 'ah', 'mantap']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['request', 'dinyayiin', 'lagu', 'lamar', 'gas', 'nyanyi', 'main', 'gitar', 'kyaknya', 'ah', 'mantap']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15593</v>
+        <v>26360</v>
       </c>
       <c r="C45" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt malam malam ke wc balik dari wc</t>
+          <t xml:space="preserve"> galau gabisa fokus kerja buna</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'malam', 'malam', 'ke', 'wc', 'balik', 'dari', 'wc']</t>
+          <t>['galau', 'gabisa', 'fokus', 'kerja', 'buna']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
+          <t>['galau', 'tidak, bisa', 'fokus', 'kerja', 'buna']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['malam', 'malam', 'wc', 'wc']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['malam', 'malam', 'wc', 'wc']</t>
+          <t>['galau', 'tidak, bisa', 'fokus', 'kerja', 'buna']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['galau', 'tidak bisa', 'fokus', 'kerja', 'buna']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15594</v>
+        <v>26361</v>
       </c>
       <c r="C46" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>motto aja googling keliatan banget gapunya motto</t>
+          <t>cape tau ngomong yaudahlah teroooossssss</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['motto', 'aja', 'googling', 'keliatan', 'banget', 'gapunya', 'motto']</t>
+          <t>['cape', 'tau', 'ngomong', 'yaudahlah', 'teroooossssss']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['cape', 'tau', 'berbicara', 'ya, sudahlah', 'teroooossssss']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['motto', 'googling', 'keliatan', 'banget', 'gapunya', 'motto']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['motto', 'googling', 'liat', 'banget', 'gapunya', 'motto']</t>
+          <t>['cape', 'berbicara', 'ya, sudahlah', 'teroooossssss']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['cape', 'bicara', 'ya sudah', 'teroooossssss']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15595</v>
+        <v>26362</v>
       </c>
       <c r="C47" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt capeeeeeeeeeeeeeee pake banget</t>
+          <t>sedih sih tapi yaudahlah</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'capeeeeeeeeeeeeeee', 'pake', 'banget']</t>
+          <t>['sedih', 'sih', 'tapi', 'yaudahlah']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['sedih', 'sih', 'tapi', 'ya, sudahlah']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['capeeeeeeeeeeeeeee', 'pake', 'banget']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['capeeeeeeeeeeeeeee', 'pake', 'banget']</t>
+          <t>['sedih', 'ya, sudahlah']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['sedih', 'ya sudah']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15596</v>
+        <v>26363</v>
       </c>
       <c r="C48" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rame amat gaada yg mau mutualan</t>
+          <t>nikahan mbaku sidang besok skip apalagi perkara jarak memang melelahkan ya hm</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rame', 'amat', 'gaada', 'yg', 'mau', 'mutualan']</t>
+          <t>['nikahan', 'mbaku', 'sidang', 'besok', 'skip', 'apalagi', 'perkara', 'jarak', 'memang', 'melelahkan', 'ya', 'hm']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['nikahan', 'mbakku', 'sidang', 'besok', 'skip', 'apalagi', 'perkara', 'jarak', 'memang', 'melelahkan', 'ya', 'hem']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['rame', 'gaada', 'mutualan']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['rame', 'gaada', 'mutualan']</t>
+          <t>['nikahan', 'mbakku', 'sidang', 'besok', 'skip', 'perkara', 'jarak', 'melelahkan', 'hem']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['nikah', 'mbak', 'sidang', 'besok', 'skip', 'perkara', 'jarak', 'lelah', 'hem']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15597</v>
+        <v>26364</v>
       </c>
       <c r="C49" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt menjadi bucin itu hanya masalah waktu yang sekarang ngerasain bakal dikatain yang sekarang ngatain bakal ngerasain</t>
+          <t>banyak skip momenmomen terpenting dalam hidupku ini ujian atau apa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'menjadi', 'bucin', 'itu', 'hanya', 'masalah', 'waktu', 'yang', 'sekarang', 'ngerasain', 'bakal', 'dikatain', 'yang', 'sekarang', 'ngatain', 'bakal', 'ngerasain']</t>
+          <t>['banyak', 'skip', 'momenmomen', 'terpenting', 'dalam', 'hidupku', 'ini', 'ujian', 'atau', 'apa']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['banyak', 'skip', 'momenmomen', 'terpenting', 'dalam', 'hidupku', 'ini', 'ujian', 'atau', 'apa']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['bucin', 'ngerasain', 'dikatain', 'ngatain', 'ngerasain']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['bucin', 'ngerasain', 'dikatain', 'ngatain', 'ngerasain']</t>
+          <t>['skip', 'momenmomen', 'terpenting', 'hidupku', 'ujian']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['skip', 'momenmomen', 'penting', 'hidup', 'uji']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15598</v>
+        <v>26365</v>
       </c>
       <c r="C50" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>stttt jangan pada brisik</t>
+          <t>rt hal yang harus dirahasiakan kehidupan cinta kamu penghasilan kamu langkah kamu selanjutnya</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['stttt', 'jangan', 'pada', 'brisik']</t>
+          <t>['rt', 'hal', 'yang', 'harus', 'dirahasiakan', 'kehidupan', 'cinta', 'kamu', 'penghasilan', 'kamu', 'langkah', 'kamu', 'selanjutnya']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'hal', 'yang', 'harus', 'dirahasiakan', 'kehidupan', 'cinta', 'kamu', 'penghasilan', 'kamu', 'langkah', 'kamu', 'selanjutnya']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['stttt', 'brisik']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['stttt', 'brisik']</t>
+          <t>['dirahasiakan', 'kehidupan', 'cinta', 'penghasilan', 'langkah']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['rahasia', 'hidup', 'cinta', 'hasil', 'langkah']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15599</v>
+        <v>26366</v>
       </c>
       <c r="C51" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>my fav notif</t>
+          <t>aduh grgr di ajak ibu kost buat ngurusin kamar sebelah jadi kelewat jam buat chat bapaknya</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['my', 'fav', 'notif']</t>
+          <t>['aduh', 'grgr', 'di', 'ajak', 'ibu', 'kost', 'buat', 'ngurusin', 'kamar', 'sebelah', 'jadi', 'kelewat', 'jam', 'buat', 'chat', 'bapaknya']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['aduh', 'gara, gara', 'di', 'ajak', 'ibu', 'indekos', 'buat', 'mengurus', 'kamar', 'sebelah', 'jadi', 'kelewat', 'jam', 'buat', 'chat', 'bapaknya']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['my', 'fav', 'notif']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['my', 'fav', 'notif']</t>
+          <t>['aduh', 'gara, gara', 'ajak', 'indekos', 'mengurus', 'kamar', 'sebelah', 'kelewat', 'jam', 'chat', 'bapaknya']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['aduh', 'gara gara', 'ajak', 'indekos', 'urus', 'kamar', 'belah', 'lewat', 'jam', 'chat', 'bapak']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15600</v>
+        <v>26367</v>
       </c>
       <c r="C52" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt jangan berduka apa pun yang hilang darimu akan kembali lagi dalam wujud lain jalaluddin rumi</t>
+          <t>iri bilang mba papale wkwk</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'berduka', 'apa', 'pun', 'yang', 'hilang', 'darimu', 'akan', 'kembali', 'lagi', 'dalam', 'wujud', 'lain', 'jalaluddin', 'rumi']</t>
+          <t>['iri', 'bilang', 'mba', 'papale', 'wkwk']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['iri', 'bilang', 'mbak', 'papale', 'wkwk']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['berduka', 'hilang', 'darimu', 'wujud', 'jalaluddin', 'rumi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['duka', 'hilang', 'dari', 'wujud', 'jalaluddin', 'rumi']</t>
+          <t>['iri', 'mbak', 'papale', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['iri', 'mbak', 'papale', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15601</v>
+        <v>26368</v>
       </c>
       <c r="C53" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt kok orangorang mau yaa selingkuh yang jelasjelas butuh effort gede buat nutupin padahal ngebucin sama satu orang itu</t>
+          <t>semoga segera sidanggandengannya</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'kok', 'orangorang', 'mau', 'yaa', 'selingkuh', 'yang', 'jelasjelas', 'butuh', 'effort', 'gede', 'buat', 'nutupin', 'padahal', 'ngebucin', 'sama', 'satu', 'orang', 'itu']</t>
+          <t>['semoga', 'segera', 'sidanggandengannya']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['semoga', 'segera', 'sidanggandengannya']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['orangorang', 'yaa', 'selingkuh', 'jelasjelas', 'butuh', 'effort', 'gede', 'nutupin', 'ngebucin', 'orang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['orangorang', 'yaa', 'selingkuh', 'jelasjelas', 'butuh', 'effort', 'gede', 'nutupin', 'ngebucin', 'orang']</t>
+          <t>['semoga', 'sidanggandengannya']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['moga', 'sidanggandengannya']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15602</v>
+        <v>26369</v>
       </c>
       <c r="C54" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ingin mengulang semua dari awal deh tapi udah cape jadi jalanin aja</t>
+          <t>woilahhh belom mandi semangat bgt latiannya bundd</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['ingin', 'mengulang', 'semua', 'dari', 'awal', 'deh', 'tapi', 'udah', 'cape', 'jadi', 'jalanin', 'aja']</t>
+          <t>['woilahhh', 'belom', 'mandi', 'semangat', 'bgt', 'latiannya', 'bundd']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['woilahhh', 'belum', 'mandi', 'semangat', 'banget', 'latiannya', 'bundd']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['mengulang', 'deh', 'udah', 'cape', 'jalanin']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['ulang', 'deh', 'udah', 'cape', 'jalanin']</t>
+          <t>['woilahhh', 'mandi', 'semangat', 'banget', 'latiannya', 'bundd']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['woilahhh', 'mandi', 'semangat', 'banget', 'latiannya', 'bundd']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15603</v>
+        <v>26370</v>
       </c>
       <c r="C55" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>tiap baca revisian selalu dag dig dug alias gausah revisi napa pak langsung acc aja wkwk</t>
+          <t>rt people left memories stay</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['tiap', 'baca', 'revisian', 'selalu', 'dag', 'dig', 'dug', 'alias', 'gausah', 'revisi', 'napa', 'pak', 'langsung', 'acc', 'aja', 'wkwk']</t>
+          <t>['rt', 'people', 'left', 'memories', 'stay']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'people', 'left', 'memories', 'stay']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['baca', 'revisian', 'dag', 'dig', 'dug', 'alias', 'gausah', 'revisi', 'napa', 'langsung', 'acc', 'wkwk']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['baca', 'revisi', 'dag', 'dig', 'dug', 'alias', 'gausah', 'revisi', 'napa', 'langsung', 'acc', 'wkwk']</t>
+          <t>['people', 'left', 'memories', 'stay']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['people', 'left', 'memories', 'stay']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15604</v>
+        <v>26371</v>
       </c>
       <c r="C56" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kenapa bisa sakit banget si dan datengnya selalu dadakan tapi beruntung si pas sakit ga yg lagi di luar karna bi</t>
+          <t>rt sosok ayah tuh ngaruh banget sama alur hidup anak perempuannya</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kenapa', 'bisa', 'sakit', 'banget', 'si', 'dan', 'datengnya', 'selalu', 'dadakan', 'tapi', 'beruntung', 'si', 'pas', 'sakit', 'ga', 'yg', 'lagi', 'di', 'luar', 'karna', 'bi']</t>
+          <t>['rt', 'sosok', 'ayah', 'tuh', 'ngaruh', 'banget', 'sama', 'alur', 'hidup', 'anak', 'perempuannya']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'sosok', 'ayah', 'itu', 'berpengaruh', 'banget', 'sama', 'alur', 'hidup', 'anak', 'perempuannya']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['sakit', 'banget', 'datengnya', 'dadakan', 'beruntung', 'pas', 'sakit', 'karna', 'bi']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['sakit', 'banget', 'datengnya', 'dada', 'untung', 'pas', 'sakit', 'karna', 'bi']</t>
+          <t>['sosok', 'ayah', 'berpengaruh', 'banget', 'alur', 'hidup', 'anak', 'perempuannya']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['sosok', 'ayah', 'pengaruh', 'banget', 'alur', 'hidup', 'anak', 'perempuan']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15605</v>
+        <v>26372</v>
       </c>
       <c r="C57" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt fokus pertolongan pertama pada diare pup cair gtx per jam adalah rehidrasi ya temen bukan menghentikan diarenya</t>
+          <t>apaniiih</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'fokus', 'pertolongan', 'pertama', 'pada', 'diare', 'pup', 'cair', 'gtx', 'per', 'jam', 'adalah', 'rehidrasi', 'ya', 'temen', 'bukan', 'menghentikan', 'diarenya']</t>
+          <t>['apaniiih']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['apaniiih']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['fokus', 'pertolongan', 'diare', 'pup', 'cair', 'gtx', 'jam', 'rehidrasi', 'temen', 'menghentikan', 'diarenya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['fokus', 'tolong', 'diare', 'pup', 'cair', 'gtx', 'jam', 'rehidrasi', 'temen', 'henti', 'diare']</t>
+          <t>['apaniiih']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['apaniiih']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15606</v>
+        <v>26373</v>
       </c>
       <c r="C58" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>sekretaris</t>
+          <t>menghadapi tapi sambil nangis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['sekretaris']</t>
+          <t>['menghadapi', 'tapi', 'sambil', 'nangis']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['menghadapi', 'tapi', 'sambil', 'menangis']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['sekretaris']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['sekretaris']</t>
+          <t>['menghadapi', 'menangis']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['hadap', 'menang']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15607</v>
+        <v>26374</v>
       </c>
       <c r="C59" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>korden</t>
+          <t>baru sadar telapak kaki sering berkeingat penyebabnya apaya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['korden']</t>
+          <t>['baru', 'sadar', 'telapak', 'kaki', 'sering', 'berkeingat', 'penyebabnya', 'apaya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['baru', 'sadar', 'telapak', 'kaki', 'sering', 'berkeingat', 'penyebabnya', 'apaya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['korden']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['korden']</t>
+          <t>['sadar', 'telapak', 'kaki', 'berkeingat', 'penyebabnya', 'apaya']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['sadar', 'telapak', 'kaki', 'ingat', 'sebab', 'apaya']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15608</v>
+        <v>26375</v>
       </c>
       <c r="C60" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt tiktok tuh sekarang jadi salah satu platform buat hiburan dan belajar mirip seperti youtube bedanya tiktok dibatasi oleh dur</t>
+          <t>rt joo lo sama dia kok ngga pernah main bareng lagi ngga tau mungkin lagi beda kesibukan atau emang seleksi alam dalam pertemana</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'tiktok', 'tuh', 'sekarang', 'jadi', 'salah', 'satu', 'platform', 'buat', 'hiburan', 'dan', 'belajar', 'mirip', 'seperti', 'youtube', 'bedanya', 'tiktok', 'dibatasi', 'oleh', 'dur']</t>
+          <t>['rt', 'joo', 'lo', 'sama', 'dia', 'kok', 'ngga', 'pernah', 'main', 'bareng', 'lagi', 'ngga', 'tau', 'mungkin', 'lagi', 'beda', 'kesibukan', 'atau', 'emang', 'seleksi', 'alam', 'dalam', 'pertemana']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'joo', 'kamu', 'sama', 'dia', 'kok', 'tidak', 'pernah', 'main', 'bareng', 'lagi', 'tidak', 'tau', 'mungkin', 'lagi', 'beda', 'kesibukan', 'atau', 'memang', 'seleksi', 'alam', 'dalam', 'pertemana']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['tiktok', 'salah', 'platform', 'hiburan', 'belajar', 'youtube', 'bedanya', 'tiktok', 'dibatasi', 'dur']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['tiktok', 'salah', 'platform', 'hibur', 'ajar', 'youtube', 'beda', 'tiktok', 'batas', 'dur']</t>
+          <t>['joo', 'main', 'bareng', 'beda', 'kesibukan', 'seleksi', 'alam', 'pertemana']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['joo', 'main', 'bareng', 'beda', 'sibuk', 'seleksi', 'alam', 'pertemana']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15609</v>
+        <v>26376</v>
       </c>
       <c r="C61" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>skripsi udah samp</t>
+          <t>rt nyindir di twitter padahal yang di sindir gapunya twitter biasalah</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['skripsi', 'udah', 'samp']</t>
+          <t>['rt', 'nyindir', 'di', 'twitter', 'padahal', 'yang', 'di', 'sindir', 'gapunya', 'twitter', 'biasalah']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'menyindir', 'di', 'twitter', 'padahal', 'yang', 'di', 'sindir', 'tidak, punya', 'twitter', 'biasalah']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['skripsi', 'udah', 'samp']</t>
+          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['skripsi', 'udah', 'samp']</t>
+          <t>['menyindir', 'twitter', 'sindir', 'tidak, punya', 'twitter', 'biasalah']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['sindir', 'twitter', 'sindir', 'tidak punya', 'twitter', 'biasa']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15610</v>
+        <v>26377</v>
       </c>
       <c r="C62" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>blm mood huhu</t>
+          <t>dinginnnyaaaaa</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['blm', 'mood', 'huhu']</t>
+          <t>['dinginnnyaaaaa']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dinginnnyaaaaa']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['blm', 'mood', 'huhu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['blm', 'mood', 'huhu']</t>
+          <t>['dinginnnyaaaaa']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['dinginnnyaaaaa']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15611</v>
+        <v>26378</v>
       </c>
       <c r="C63" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>enaknya ngapain yaa mmmm</t>
+          <t>rt bucin sama satu orang tuh enak banget tapi sama orang yang tepat</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['enaknya', 'ngapain', 'yaa', 'mmmm']</t>
+          <t>['rt', 'bucin', 'sama', 'satu', 'orang', 'tuh', 'enak', 'banget', 'tapi', 'sama', 'orang', 'yang', 'tepat']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'budak, cinta', 'sama', 'satu', 'orang', 'itu', 'enak', 'banget', 'tapi', 'sama', 'orang', 'yang', 'tepat']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['enaknya', 'ngapain', 'yaa', 'mmmm']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['enak', 'ngapain', 'yaa', 'mmmm']</t>
+          <t>['budak, cinta', 'orang', 'enak', 'banget', 'orang']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['budak cinta', 'orang', 'enak', 'banget', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15612</v>
+        <v>26379</v>
       </c>
       <c r="C64" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>tiga hari ini benerbener lagi ilang semangat buat lanjut skripsian padahal rebahan sambil main hp juga bosen</t>
+          <t>bener weh serem juga</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['tiga', 'hari', 'ini', 'benerbener', 'lagi', 'ilang', 'semangat', 'buat', 'lanjut', 'skripsian', 'padahal', 'rebahan', 'sambil', 'main', 'hp', 'juga', 'bosen']</t>
+          <t>['bener', 'weh', 'serem', 'juga']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['benar', 'weh', 'seram', 'juga']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['benerbener', 'ilang', 'semangat', 'skripsian', 'rebahan', 'main', 'hp', 'bosen']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['benerbener', 'ilang', 'semangat', 'skripsi', 'rebah', 'main', 'hp', 'bosen']</t>
+          <t>['weh', 'seram']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['weh', 'seram']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15613</v>
+        <v>26380</v>
       </c>
       <c r="C65" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>keren bgt si mas satu ini dari dulu pertama kenal selalu mengagumkan</t>
+          <t>rt cape dips</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['keren', 'bgt', 'si', 'mas', 'satu', 'ini', 'dari', 'dulu', 'pertama', 'kenal', 'selalu', 'mengagumkan']</t>
+          <t>['rt', 'cape', 'dips']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'cape', 'dips']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['keren', 'bgt', 'mas', 'kenal', 'mengagumkan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['keren', 'bgt', 'mas', 'kenal', 'kagum']</t>
+          <t>['cape', 'dips']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['cape', 'dips']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15614</v>
+        <v>26381</v>
       </c>
       <c r="C66" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>aamiin</t>
+          <t>nentuin jadwal dengan orang super sibuk itu susah ya alias jadwal selonya beda semua hzzzzz</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['nentuin', 'jadwal', 'dengan', 'orang', 'super', 'sibuk', 'itu', 'susah', 'ya', 'alias', 'jadwal', 'selonya', 'beda', 'semua', 'hzzzzz']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['menentukan', 'jadwal', 'dengan', 'orang', 'super', 'sibuk', 'itu', 'susah', 'ya', 'alias', 'jadwal', 'selonya', 'beda', 'semua', 'hzzzzz']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['menentukan', 'jadwal', 'orang', 'super', 'sibuk', 'susah', 'alias', 'jadwal', 'selonya', 'beda', 'hzzzzz']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['tentu', 'jadwal', 'orang', 'super', 'sibuk', 'susah', 'alias', 'jadwal', 'selo', 'beda', 'hzzzzz']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15615</v>
+        <v>26382</v>
       </c>
       <c r="C67" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt semandirimandirinya seorang wanita pasti ada kokhari dia kepengen di jemput amp diajak makan malam abis plg kantor setegas</t>
+          <t>rt ada beberapa hal yang semakin didekati semakin menjauh yang dipertahankan semakin berantakan yang dibangun semakin ru</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'semandirimandirinya', 'seorang', 'wanita', 'pasti', 'ada', 'kokhari', 'dia', 'kepengen', 'di', 'jemput', 'amp', 'diajak', 'makan', 'malam', 'abis', 'plg', 'kantor', 'setegas']</t>
+          <t>['rt', 'ada', 'beberapa', 'hal', 'yang', 'semakin', 'didekati', 'semakin', 'menjauh', 'yang', 'dipertahankan', 'semakin', 'berantakan', 'yang', 'dibangun', 'semakin', 'ru']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'ada', 'beberapa', 'hal', 'yang', 'semakin', 'didekati', 'semakin', 'menjauh', 'yang', 'dipertahankan', 'semakin', 'berantakan', 'yang', 'dibangun', 'semakin', 'ru']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['semandirimandirinya', 'wanita', 'kokhari', 'kepengen', 'jemput', 'diajak', 'makan', 'malam', 'abis', 'plg', 'kantor', 'setegas']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['semandirimandirinya', 'wanita', 'kokhari', 'ken', 'jemput', 'ajak', 'makan', 'malam', 'abis', 'plg', 'kantor', 'tegas']</t>
+          <t>['didekati', 'menjauh', 'dipertahankan', 'berantakan', 'dibangun', 'ru']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['dekat', 'jauh', 'tahan', 'beranta', 'bangun', 'ru']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15616</v>
+        <v>26383</v>
       </c>
       <c r="C68" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>istirahat boleh berhenti jangan</t>
+          <t>malam ini terasa lebih dingin dari biasanya</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['istirahat', 'boleh', 'berhenti', 'jangan']</t>
+          <t>['malam', 'ini', 'terasa', 'lebih', 'dingin', 'dari', 'biasanya']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['malam', 'ini', 'terasa', 'lebih', 'dingin', 'dari', 'biasanya']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['istirahat', 'berhenti']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['istirahat', 'henti']</t>
+          <t>['malam', 'dingin']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['malam', 'dingin']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15617</v>
+        <v>26384</v>
       </c>
       <c r="C69" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>tim pegangan motor bagian belakang akumah</t>
+          <t>admin fakultas udah jadi contoh betapa ramah di chat belum tentu ramah ketika berhadapan langsung</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['tim', 'pegangan', 'motor', 'bagian', 'belakang', 'akumah']</t>
+          <t>['admin', 'fakultas', 'udah', 'jadi', 'contoh', 'betapa', 'ramah', 'di', 'chat', 'belum', 'tentu', 'ramah', 'ketika', 'berhadapan', 'langsung']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['admin', 'fakultas', 'sudah', 'jadi', 'contoh', 'betapa', 'ramah', 'di', 'chat', 'belum', 'tentu', 'ramah', 'ketika', 'berhadapan', 'langsung']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['tim', 'pegangan', 'motor', 'akumah']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['tim', 'pegang', 'motor', 'akumah']</t>
+          <t>['admin', 'fakultas', 'contoh', 'betapa', 'ramah', 'chat', 'ramah', 'berhadapan', 'langsung']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['admin', 'fakultas', 'contoh', 'betapa', 'ramah', 'chat', 'ramah', 'hadap', 'langsung']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15618</v>
+        <v>26385</v>
       </c>
       <c r="C70" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>april</t>
+          <t>ttapi udah mulai gatenang jadi yaudahlah yuk gas latian aja</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['april']</t>
+          <t>['ttapi', 'udah', 'mulai', 'gatenang', 'jadi', 'yaudahlah', 'yuk', 'gas', 'latian', 'aja']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ttapi', 'sudah', 'mulai', 'gatenang', 'jadi', 'ya, sudahlah', 'yuk', 'gas', 'latihan', 'saja']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['april']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['april']</t>
+          <t>['ttapi', 'gatenang', 'ya, sudahlah', 'yuk', 'gas', 'latihan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['ttapi', 'gatenang', 'ya sudah', 'yuk', 'gas', 'latih']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15619</v>
+        <v>26386</v>
       </c>
       <c r="C71" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>cubet kalo kamu lagi bucin gemesh pengen ketemu</t>
+          <t>jumat siang kenapa hawanya ngantukin si ena bgt buat bobo</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['cubet', 'kalo', 'kamu', 'lagi', 'bucin', 'gemesh', 'pengen', 'ketemu']</t>
+          <t>['jumat', 'siang', 'kenapa', 'hawanya', 'ngantukin', 'si', 'ena', 'bgt', 'buat', 'bobo']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['jumat', 'siang', 'kenapa', 'hawanya', 'ngantukin', 'sih', 'ena', 'banget', 'buat', 'tidur']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['cubet', 'bucin', 'gemesh', 'pengen', 'ketemu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['cubet', 'bucin', 'gemesh', 'ken', 'ketemu']</t>
+          <t>['jumat', 'siang', 'hawanya', 'ngantukin', 'ena', 'banget', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['jumat', 'siang', 'hawa', 'ngantukin', 'ena', 'banget', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15620</v>
+        <v>26387</v>
       </c>
       <c r="C72" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dosenku pernah bilang kalau mau nyari judul skripsi itu sebenernya sama kaya nyari pacar alias mulai aja dulu nanti </t>
+          <t>hehhhh hehe</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'dosenku', 'pernah', 'bilang', 'kalau', 'mau', 'nyari', 'judul', 'skripsi', 'itu', 'sebenernya', 'sama', 'kaya', 'nyari', 'pacar', 'alias', 'mulai', 'aja', 'dulu', 'nanti']</t>
+          <t>['hehhhh', 'hehe']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['hehhhh', 'hehe']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['dosenku', 'nyari', 'judul', 'skripsi', 'sebenernya', 'kaya', 'nyari', 'pacar', 'alias']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['dosen', 'nyari', 'judul', 'skripsi', 'sebenernya', 'kaya', 'nyari', 'pacar', 'alias']</t>
+          <t>['hehhhh']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['hehhhh']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15621</v>
+        <v>26388</v>
       </c>
       <c r="C73" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt fun fact meskipun kamu punya kendaraan super cepat yg dapat melaju dgn kecepatan cahaya kamu masih perlu waktu setidaknya </t>
+          <t>but aku yakin allah tidak tidur pasti akan ada kemudahan bismillah</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'fun', 'fact', 'meskipun', 'kamu', 'punya', 'kendaraan', 'super', 'cepat', 'yg', 'dapat', 'melaju', 'dgn', 'kecepatan', 'cahaya', 'kamu', 'masih', 'perlu', 'waktu', 'setidaknya']</t>
+          <t>['but', 'aku', 'yakin', 'allah', 'tidak', 'tidur', 'pasti', 'akan', 'ada', 'kemudahan', 'bismillah']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['but', 'aku', 'yakin', 'allah', 'tidak', 'tidur', 'pasti', 'akan', 'ada', 'kemudahan', 'bismillah']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['fun', 'fact', 'kendaraan', 'super', 'cepat', 'melaju', 'kecepatan', 'cahaya']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['fun', 'fact', 'kendara', 'super', 'cepat', 'laju', 'cepat', 'cahaya']</t>
+          <t>['but', 'allah', 'tidur', 'kemudahan', 'bismillah']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['but', 'allah', 'tidur', 'mudah', 'bismillah']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15622</v>
+        <v>26389</v>
       </c>
       <c r="C74" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt cm basic skills yang harus dimiliki oleh mahasiswa  thread ayo guys please kasi pencerahan</t>
+          <t>haduu udah mulai ga tenang ketika akan berhadapan dengan prof dalam satu meeting</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'cm', 'basic', 'skills', 'yang', 'harus', 'dimiliki', 'oleh', 'mahasiswa', 'thread', 'ayo', 'guys', 'please', 'kasi', 'pencerahan']</t>
+          <t>['haduu', 'udah', 'mulai', 'ga', 'tenang', 'ketika', 'akan', 'berhadapan', 'dengan', 'prof', 'dalam', 'satu', 'meeting']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['haduu', 'sudah', 'mulai', 'tidak', 'tenang', 'ketika', 'akan', 'berhadapan', 'dengan', 'prof', 'dalam', 'satu', 'meeting']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['cm', 'basic', 'skills', 'dimiliki', 'mahasiswa', 'thread', 'ayo', 'guys', 'please', 'kasi', 'pencerahan']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['cm', 'basic', 'skills', 'milik', 'mahasiswa', 'thread', 'ayo', 'guys', 'please', 'kasi', 'cerah']</t>
+          <t>['haduu', 'tenang', 'berhadapan', 'prof', 'meeting']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['haduu', 'tenang', 'hadap', 'prof', 'meeting']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15623</v>
+        <v>26390</v>
       </c>
       <c r="C75" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt di sebuah pasar buah ada para pedagang amp pembeli pisang harga pisang pagi itu seribu rupiah sebiji seorang saudagar dar</t>
+          <t>wish me luck for next week</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'sebuah', 'pasar', 'buah', 'ada', 'para', 'pedagang', 'amp', 'pembeli', 'pisang', 'harga', 'pisang', 'pagi', 'itu', 'seribu', 'rupiah', 'sebiji', 'seorang', 'saudagar', 'dar']</t>
+          <t>['wish', 'me', 'luck', 'for', 'next', 'week']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['wish', 'me', 'luck', 'for', 'next', 'week']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['pasar', 'buah', 'pedagang', 'pembeli', 'pisang', 'harga', 'pisang', 'pagi', 'seribu', 'rupiah', 'sebiji', 'saudagar', 'dar']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['pasar', 'buah', 'dagang', 'beli', 'pisang', 'harga', 'pisang', 'pagi', 'ribu', 'rupiah', 'biji', 'saudagar', 'dar']</t>
+          <t>['wish', 'me', 'luck', 'for', 'next', 'week']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['wish', 'me', 'luck', 'for', 'next', 'week']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15624</v>
+        <v>26391</v>
       </c>
       <c r="C76" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt aries are very adventurous and active how aries looks at you when you try to get them to leave the house</t>
+          <t>bangun pagi ga ngantuk lagi tapi laper banget</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'aries', 'are', 'very', 'adventurous', 'and', 'active', 'how', 'aries', 'looks', 'at', 'you', 'when', 'you', 'try', 'to', 'get', 'them', 'to', 'leave', 'the', 'house']</t>
+          <t>['bangun', 'pagi', 'ga', 'ngantuk', 'lagi', 'tapi', 'laper', 'banget']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['bangun', 'pagi', 'tidak', 'mengantuk', 'lagi', 'tapi', 'lapar', 'banget']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['aries', 'are', 'very', 'adventurous', 'and', 'active', 'how', 'aries', 'looks', 'at', 'you', 'when', 'you', 'try', 'to', 'get', 'them', 'to', 'leave', 'the', 'house']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['aries', 'are', 'very', 'adventurous', 'and', 'active', 'how', 'aries', 'looks', 'at', 'you', 'when', 'you', 'try', 'to', 'get', 'them', 'to', 'leave', 'the', 'house']</t>
+          <t>['bangun', 'pagi', 'mengantuk', 'lapar', 'banget']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['bangun', 'pagi', 'antuk', 'lapar', 'banget']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15625</v>
+        <v>26392</v>
       </c>
       <c r="C77" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt what is your random flex kaya hal ga penting tapi kalian bangga gitu sama hal itu mine is probably bisa nelen kapsul cuma</t>
+          <t>rt pas lg stres tuh pengen makan yg pedes gak sih gua iya wk rupanya capsaicin yg memicu pedas menipu otak dg bilang woi tuh</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'what', 'is', 'your', 'random', 'flex', 'kaya', 'hal', 'ga', 'penting', 'tapi', 'kalian', 'bangga', 'gitu', 'sama', 'hal', 'itu', 'mine', 'is', 'probably', 'bisa', 'nelen', 'kapsul', 'cuma']</t>
+          <t>['rt', 'pas', 'lg', 'stres', 'tuh', 'pengen', 'makan', 'yg', 'pedes', 'gak', 'sih', 'gua', 'iya', 'wk', 'rupanya', 'capsaicin', 'yg', 'memicu', 'pedas', 'menipu', 'otak', 'dg', 'bilang', 'woi', 'tuh']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'pas', 'lagi', 'stres', 'itu', 'ingin', 'makan', 'yang', 'pedas', 'tidak', 'sih', 'gue', 'iya', 'wkwk', 'rupanya', 'capsaicin', 'yang', 'memicu', 'pedas', 'menipu', 'otak', 'dengan', 'bilang', 'woi', 'itu']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['what', 'is', 'your', 'random', 'flex', 'kaya', 'bangga', 'gitu', 'mine', 'is', 'probably', 'nelen', 'kapsul']</t>
+          <t>&lt;FreqDist with 22 samples and 25 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['what', 'is', 'your', 'random', 'flex', 'kaya', 'bangga', 'gitu', 'mine', 'is', 'probably', 'nelen', 'kapsul']</t>
+          <t>['pas', 'stres', 'makan', 'pedas', 'gue', 'iya', 'wkwk', 'capsaicin', 'memicu', 'pedas', 'menipu', 'otak', 'woi']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['pas', 'stres', 'makan', 'pedas', 'gue', 'iya', 'wkwk', 'capsaicin', 'picu', 'pedas', 'tipu', 'otak', 'woi']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15626</v>
+        <v>26393</v>
       </c>
       <c r="C78" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt enggak gue enggak kuat diem lo semua anjing</t>
+          <t>apakah aku bukan cwk</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'enggak', 'gue', 'enggak', 'kuat', 'diem', 'lo', 'semua', 'anjing']</t>
+          <t>['apakah', 'aku', 'bukan', 'cwk']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['apakah', 'aku', 'bukan', 'cwk']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['gue', 'kuat', 'diem', 'lo', 'anjing']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['gue', 'kuat', 'diem', 'lo', 'anjing']</t>
+          <t>['cwk']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['cwk']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15627</v>
+        <v>26394</v>
       </c>
       <c r="C79" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>iyaa kenapa ya bund vn juga gitu</t>
+          <t>rt tuhan yo mbuh yooo</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['iyaa', 'kenapa', 'ya', 'bund', 'vn', 'juga', 'gitu']</t>
+          <t>['rt', 'tuhan', 'yo', 'mbuh', 'yooo']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'tuhan', 'iya', 'enggak, tau', 'yooo']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['iyaa', 'bund', 'vn', 'gitu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['iyaa', 'bund', 'vn', 'gitu']</t>
+          <t>['tuhan', 'iya', 'enggak, tau', 'yooo']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tuhan', 'iya', 'enggak tau', 'yooo']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15628</v>
+        <v>26395</v>
       </c>
       <c r="C80" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt do amp dont perawatan luka minor utas kalau km habis kecelakaan yg bikin luka kek gini bersihinnya hrs bener klo gamau ber</t>
+          <t>rt semakin dewasa lo bakal ngerti enaknya punya temen yang ituitu aja yup its all about quality not quantity</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'do', 'amp', 'dont', 'perawatan', 'luka', 'minor', 'utas', 'kalau', 'km', 'habis', 'kecelakaan', 'yg', 'bikin', 'luka', 'kek', 'gini', 'bersihinnya', 'hrs', 'bener', 'klo', 'gamau', 'ber']</t>
+          <t>['rt', 'semakin', 'dewasa', 'lo', 'bakal', 'ngerti', 'enaknya', 'punya', 'temen', 'yang', 'ituitu', 'aja', 'yup', 'its', 'all', 'about', 'quality', 'not', 'quantity']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'semakin', 'dewasa', 'kamu', 'bakal', 'mengerti', 'enaknya', 'punya', 'teman', 'yang', 'ituitu', 'saja', 'iya', 'ini', 'all', 'about', 'quality', 'not', 'quantity']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['do', 'dont', 'perawatan', 'luka', 'minor', 'utas', 'km', 'habis', 'kecelakaan', 'luka', 'kek', 'gini', 'bersihinnya', 'hrs', 'bener', 'gamau', 'ber']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['do', 'dont', 'awat', 'luka', 'minor', 'utas', 'km', 'habis', 'celaka', 'luka', 'kek', 'gin', 'bersihinnya', 'hrs', 'bener', 'gamau', 'ber']</t>
+          <t>['dewasa', 'mengerti', 'enaknya', 'teman', 'ituitu', 'iya', 'all', 'about', 'quality', 'not', 'quantity']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['dewasa', 'erti', 'enak', 'teman', 'ituitu', 'iya', 'all', 'about', 'quality', 'not', 'quantity']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15629</v>
+        <v>26396</v>
       </c>
       <c r="C81" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt ketika kamu ngerasa hidup kamu berat jalanin aja karna semuanya pasti berlalu gapapa nangis gapapa ngeluh gapapa asal</t>
+          <t>kadang mikir juga si abis kelar skripsi mo ngapain hmm padahal blm finish</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'ketika', 'kamu', 'ngerasa', 'hidup', 'kamu', 'berat', 'jalanin', 'aja', 'karna', 'semuanya', 'pasti', 'berlalu', 'gapapa', 'nangis', 'gapapa', 'ngeluh', 'gapapa', 'asal']</t>
+          <t>['kadang', 'mikir', 'juga', 'si', 'abis', 'kelar', 'skripsi', 'mo', 'ngapain', 'hmm', 'padahal', 'blm', 'finish']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['kadang', 'pikir', 'juga', 'sih', 'habis', 'selesai', 'skripsi', 'mau', 'apa', 'hem', 'padahal', 'belum', 'finish']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['ngerasa', 'hidup', 'berat', 'jalanin', 'karna', 'gapapa', 'nangis', 'gapapa', 'ngeluh', 'gapapa']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['ngerasa', 'hidup', 'berat', 'jalanin', 'karna', 'gapapa', 'nang', 'gapapa', 'ngeluh', 'gapapa']</t>
+          <t>['kadang', 'pikir', 'habis', 'selesai', 'skripsi', 'hem', 'finish']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kadang', 'pikir', 'habis', 'selesai', 'skripsi', 'hem', 'finish']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15630</v>
+        <v>26397</v>
       </c>
       <c r="C82" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt sesekali kita memang perlu membunuh ekspektasi kepada oranglain</t>
+          <t>aku tiap malem</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'sesekali', 'kita', 'memang', 'perlu', 'membunuh', 'ekspektasi', 'kepada', 'oranglain']</t>
+          <t>['aku', 'tiap', 'malem']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['aku', 'tiap', 'malam']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['membunuh', 'ekspektasi', 'oranglain']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['bunuh', 'ekspektasi', 'oranglain']</t>
+          <t>['malam']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['malam']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15631</v>
+        <v>26398</v>
       </c>
       <c r="C83" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ingin mencari sukarelawan yg mau ngetikin pembahasan</t>
+          <t>rt selalu bilang ke diri sendiri yauda gpp kok semangat ya sabar ya dikit lagi padahal rasanya capek banget kek selalu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['ingin', 'mencari', 'sukarelawan', 'yg', 'mau', 'ngetikin', 'pembahasan']</t>
+          <t>['rt', 'selalu', 'bilang', 'ke', 'diri', 'sendiri', 'yauda', 'gpp', 'kok', 'semangat', 'ya', 'sabar', 'ya', 'dikit', 'lagi', 'padahal', 'rasanya', 'capek', 'banget', 'kek', 'selalu']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'selalu', 'bilang', 'ke', 'diri', 'sendiri', 'ya, sudah', 'tidak, apa, apa', 'kok', 'semangat', 'ya', 'sabar', 'ya', 'sedikit', 'lagi', 'padahal', 'rasanya', 'cape', 'banget', 'kayak', 'selalu']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['mencari', 'sukarelawan', 'ngetikin', 'pembahasan']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['cari', 'sukarelawan', 'ngetikin', 'bahas']</t>
+          <t>['ya, sudah', 'tidak, apa, apa', 'semangat', 'sabar', 'cape', 'banget', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['ya sudah', 'tidak apa apa', 'semangat', 'sabar', 'cape', 'banget', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15632</v>
+        <v>26399</v>
       </c>
       <c r="C84" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt dibalik kisah cinta orang yang langgeng pasti ada yg saling memaafkan untuk sebuah kesalahan</t>
+          <t>bengbeng mini naks banget porisinya pas buat kali gigitan aaaaa</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'dibalik', 'kisah', 'cinta', 'orang', 'yang', 'langgeng', 'pasti', 'ada', 'yg', 'saling', 'memaafkan', 'untuk', 'sebuah', 'kesalahan']</t>
+          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'buat', 'kali', 'gigitan', 'aaaaa']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'buat', 'kali', 'gigitan', 'aaaaa']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['dibalik', 'kisah', 'cinta', 'orang', 'langgeng', 'memaafkan', 'kesalahan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['balik', 'kisah', 'cinta', 'orang', 'langgeng', 'maaf', 'salah']</t>
+          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'kali', 'gigitan', 'aaaaa']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['bengbeng', 'mini', 'naks', 'banget', 'porisinya', 'pas', 'kali', 'gigit', 'aaaaa']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15633</v>
+        <v>26400</v>
       </c>
       <c r="C85" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>biasanya jam segini udah tidur tapi malem ini belum ngantuk samsek eh tibatiba ada suara gemuruh suara apa itu</t>
+          <t>rt joo self reward terbaik untuk diri sendiri tidur seharian</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['biasanya', 'jam', 'segini', 'udah', 'tidur', 'tapi', 'malem', 'ini', 'belum', 'ngantuk', 'samsek', 'eh', 'tibatiba', 'ada', 'suara', 'gemuruh', 'suara', 'apa', 'itu']</t>
+          <t>['rt', 'joo', 'self', 'reward', 'terbaik', 'untuk', 'diri', 'sendiri', 'tidur', 'seharian']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'joo', 'self', 'reward', 'terbaik', 'untuk', 'diri', 'sendiri', 'tidur', 'seharian']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['jam', 'segini', 'udah', 'tidur', 'malem', 'ngantuk', 'samsek', 'eh', 'tibatiba', 'suara', 'gemuruh', 'suara']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['jam', 'gin', 'udah', 'tidur', 'malem', 'ngantuk', 'samsek', 'eh', 'tibatiba', 'suara', 'gemuruh', 'suara']</t>
+          <t>['joo', 'self', 'reward', 'terbaik', 'tidur', 'seharian']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['joo', 'self', 'reward', 'baik', 'tidur', 'hari']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15634</v>
+        <v>26401</v>
       </c>
       <c r="C86" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ga tidur siang tp jam segini mata masih seger banget nikmat atau cobaan huaaaa</t>
+          <t>rt kayaknya seru kalo rumah kita deketan bisa ketemu tanpa harus nunggu berbulanbulan lamanya</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['ga', 'tidur', 'siang', 'tp', 'jam', 'segini', 'mata', 'masih', 'seger', 'banget', 'nikmat', 'atau', 'cobaan', 'huaaaa']</t>
+          <t>['rt', 'kayaknya', 'seru', 'kalo', 'rumah', 'kita', 'deketan', 'bisa', 'ketemu', 'tanpa', 'harus', 'nunggu', 'berbulanbulan', 'lamanya']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['rt', 'kayaknya', 'seru', 'kalau', 'rumah', 'kita', 'deketan', 'bisa', 'ketemu', 'tanpa', 'harus', 'menunggu', 'berbulanbulan', 'lamanya']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['tidur', 'siang', 'tp', 'jam', 'segini', 'mata', 'seger', 'banget', 'nikmat', 'cobaan', 'huaaaa']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['tidur', 'siang', 'tp', 'jam', 'gin', 'mata', 'seger', 'banget', 'nikmat', 'coba', 'huaaaa']</t>
+          <t>['kayaknya', 'seru', 'rumah', 'deketan', 'ketemu', 'menunggu', 'berbulanbulan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['kayak', 'seru', 'rumah', 'deketan', 'ketemu', 'tunggu', 'berbulanbulan']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15635</v>
+        <v>26402</v>
       </c>
       <c r="C87" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>aamiin</t>
+          <t>rt its okay to not be okay someday everythings will be fine</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['rt', 'its', 'okay', 'to', 'not', 'be', 'okay', 'someday', 'everythings', 'will', 'be', 'fine']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'ini', 'ok', 'to', 'not', 'be', 'ok', 'someday', 'segalanya', 'will', 'be', 'fine']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['ok', 'to', 'not', 'be', 'ok', 'someday', 'will', 'be', 'fine']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['ok', 'to', 'not', 'be', 'ok', 'someday', 'will', 'be', 'fine']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15636</v>
+        <v>26403</v>
       </c>
       <c r="C88" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>garagara itukan jadi gabisa berpikir jernih</t>
+          <t>rt semarahmarahnya aku sama pasangan setiap kali mau ngomong selalu mikir ini nyakitin dia ga ya</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['garagara', 'itukan', 'jadi', 'gabisa', 'berpikir', 'jernih']</t>
+          <t>['rt', 'semarahmarahnya', 'aku', 'sama', 'pasangan', 'setiap', 'kali', 'mau', 'ngomong', 'selalu', 'mikir', 'ini', 'nyakitin', 'dia', 'ga', 'ya']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'semarahmarahnya', 'aku', 'sama', 'pasangan', 'setiap', 'kali', 'mau', 'berbicara', 'selalu', 'pikir', 'ini', 'menyakiti', 'dia', 'tidak', 'ya']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['garagara', 'itukan', 'gabisa', 'berpikir', 'jernih']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['garagara', 'itu', 'gabisa', 'pikir', 'jernih']</t>
+          <t>['semarahmarahnya', 'pasangan', 'kali', 'berbicara', 'pikir', 'menyakiti']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['semarahmarahnya', 'pasang', 'kali', 'bicara', 'pikir', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15637</v>
+        <v>26404</v>
       </c>
       <c r="C89" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>kurang satu angka nol ternyata bikin salah kaprah bund yok teliti lagi yok</t>
+          <t>rt kapan nikah pertanyaan sejuta umat yang beberapa di antara kalian pasti sebel kalo ditanya gitu sama gua dulu juga gitu</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['kurang', 'satu', 'angka', 'nol', 'ternyata', 'bikin', 'salah', 'kaprah', 'bund', 'yok', 'teliti', 'lagi', 'yok']</t>
+          <t>['rt', 'kapan', 'nikah', 'pertanyaan', 'sejuta', 'umat', 'yang', 'beberapa', 'di', 'antara', 'kalian', 'pasti', 'sebel', 'kalo', 'ditanya', 'gitu', 'sama', 'gua', 'dulu', 'juga', 'gitu']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'kapan', 'nikah', 'pertanyaan', 'sejuta', 'umat', 'yang', 'beberapa', 'di', 'antara', 'kalian', 'pasti', 'kesal', 'kalau', 'ditanya', 'begitu', 'sama', 'gue', 'dulu', 'juga', 'begitu']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['angka', 'nol', 'salah', 'kaprah', 'bund', 'yok', 'teliti', 'yok']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['angka', 'nol', 'salah', 'kaprah', 'bund', 'yok', 'teliti', 'yok']</t>
+          <t>['nikah', 'sejuta', 'umat', 'kesal', 'gue']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['nikah', 'juta', 'umat', 'kesal', 'gue']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15638</v>
+        <v>26405</v>
       </c>
       <c r="C90" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ditarik ulur mulu sama hasilnya udah kek orang pdkt deh sukanya tarik ulur</t>
+          <t>rt joo seringkali ngerjain sesuatu itu sesuai dengan jadwal mood</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['ditarik', 'ulur', 'mulu', 'sama', 'hasilnya', 'udah', 'kek', 'orang', 'pdkt', 'deh', 'sukanya', 'tarik', 'ulur']</t>
+          <t>['rt', 'joo', 'seringkali', 'ngerjain', 'sesuatu', 'itu', 'sesuai', 'dengan', 'jadwal', 'mood']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'joo', 'seringkali', 'mengerjakan', 'sesuatu', 'itu', 'sesuai', 'dengan', 'jadwal', 'suasana, hati']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['ditarik', 'ulur', 'mulu', 'hasilnya', 'udah', 'kek', 'orang', 'pdkt', 'deh', 'sukanya', 'tarik', 'ulur']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['tarik', 'ulur', 'mulu', 'hasil', 'udah', 'kek', 'orang', 'pdkt', 'deh', 'suka', 'tarik', 'ulur']</t>
+          <t>['joo', 'seringkali', 'sesuai', 'jadwal', 'suasana, hati']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['joo', 'seringkali', 'sesuai', 'jadwal', 'suasana hati']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15639</v>
+        <v>26406</v>
       </c>
       <c r="C91" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>isi skripsi ngeluh bosen males ga mood kapan kelar dahlah</t>
+          <t>rt dari nissa sabyan dan ayus aku gamau belajar soalnya setia dan bucin sama satu orang itu enak banget</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['isi', 'skripsi', 'ngeluh', 'bosen', 'males', 'ga', 'mood', 'kapan', 'kelar', 'dahlah']</t>
+          <t>['rt', 'dari', 'nissa', 'sabyan', 'dan', 'ayus', 'aku', 'gamau', 'belajar', 'soalnya', 'setia', 'dan', 'bucin', 'sama', 'satu', 'orang', 'itu', 'enak', 'banget']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'dari', 'nissa', 'sabyan', 'dan', 'ayus', 'aku', 'tidak, mau', 'belajar', 'soalnya', 'setia', 'dan', 'budak, cinta', 'sama', 'satu', 'orang', 'itu', 'enak', 'banget']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['isi', 'skripsi', 'ngeluh', 'bosen', 'males', 'mood', 'kelar', 'dahlah']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['isi', 'skripsi', 'ngeluh', 'bosen', 'males', 'mood', 'kelar', 'dah']</t>
+          <t>['nissa', 'sabyan', 'ayus', 'tidak, mau', 'belajar', 'setia', 'budak, cinta', 'orang', 'enak', 'banget']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['nissa', 'sabyan', 'ayus', 'tidak mau', 'ajar', 'setia', 'budak cinta', 'orang', 'enak', 'banget']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15640</v>
+        <v>26407</v>
       </c>
       <c r="C92" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>bgttttt</t>
+          <t>bisa ngga si dunia berenti becandanya aku cape</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['bgttttt']</t>
+          <t>['bisa', 'ngga', 'si', 'dunia', 'berenti', 'becandanya', 'aku', 'cape']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['bisa', 'tidak', 'sih', 'dunia', 'berhenti', 'becandanya', 'aku', 'cape']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['bgttttt']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['bgttttt']</t>
+          <t>['dunia', 'berhenti', 'becandanya', 'cape']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['dunia', 'henti', 'becandanya', 'cape']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15641</v>
+        <v>26408</v>
       </c>
       <c r="C93" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>nek ngene terus kapan rampunge</t>
+          <t>kzlllll sama yg udah nambahin ngadi di sk ku heh tolong lah lain kali lebih teliti kalo masukkin nama di sk</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['nek', 'ngene', 'terus', 'kapan', 'rampunge']</t>
+          <t>['kzlllll', 'sama', 'yg', 'udah', 'nambahin', 'ngadi', 'di', 'sk', 'ku', 'heh', 'tolong', 'lah', 'lain', 'kali', 'lebih', 'teliti', 'kalo', 'masukkin', 'nama', 'di', 'sk']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kzlllll', 'sama', 'yang', 'sudah', 'menambahkan', 'ngadi', 'di', 'surat, keputusan', 'ku', 'he', 'tolong', 'lah', 'lain', 'kali', 'lebih', 'teliti', 'kalau', 'masukkin', 'nama', 'di', 'surat, keputusan']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['nek', 'ngene', 'rampunge']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['nek', 'ngene', 'rampunge']</t>
+          <t>['kzlllll', 'ngadi', 'surat, keputusan', 'ku', 'he', 'tolong', 'kali', 'teliti', 'masukkin', 'nama', 'surat, keputusan']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['kzlllll', 'ngadi', 'surat putus', 'ku', 'he', 'tolong', 'kali', 'teliti', 'masukkin', 'nama', 'surat putus']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15642</v>
+        <v>26409</v>
       </c>
       <c r="C94" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt nanti aku anterin ya is  love language</t>
+          <t>ngadingadi bgt demi apaaaaa</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'nanti', 'aku', 'anterin', 'ya', 'is', 'love', 'language']</t>
+          <t>['ngadingadi', 'bgt', 'demi', 'apaaaaa']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ngadingadi', 'banget', 'demi', 'apaaaaa']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['anterin', 'is', 'love', 'language']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['anterin', 'is', 'love', 'language']</t>
+          <t>['ngadingadi', 'banget', 'apaaaaa']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['ngadingadi', 'banget', 'apaaaaa']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15643</v>
+        <v>26410</v>
       </c>
       <c r="C95" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt bales dendam terbaik itu jadi orang sukses</t>
+          <t>rt pernah ga ketemu seseorang yang bener tulus ketika lo capek ada masalah dia jadi rumah tempat lo pulang senyaman itu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'bales', 'dendam', 'terbaik', 'itu', 'jadi', 'orang', 'sukses']</t>
+          <t>['rt', 'pernah', 'ga', 'ketemu', 'seseorang', 'yang', 'bener', 'tulus', 'ketika', 'lo', 'capek', 'ada', 'masalah', 'dia', 'jadi', 'rumah', 'tempat', 'lo', 'pulang', 'senyaman', 'itu']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'pernah', 'tidak', 'ketemu', 'seseorang', 'yang', 'benar', 'tulus', 'ketika', 'kamu', 'cape', 'ada', 'masalah', 'dia', 'jadi', 'rumah', 'tempat', 'kamu', 'pulang', 'senyaman', 'itu']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['bales', 'dendam', 'terbaik', 'orang', 'sukses']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['bales', 'dendam', 'baik', 'orang', 'sukses']</t>
+          <t>['ketemu', 'tulus', 'cape', 'rumah', 'pulang', 'senyaman']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['ketemu', 'tulus', 'cape', 'rumah', 'pulang', 'nyaman']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15644</v>
+        <v>26411</v>
       </c>
       <c r="C96" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt lebih ke titik pasrah aja sekarang ada yg nyakitin tinggal jauhin ada yg pergi silakan ada yg mau bertemen sini welcome</t>
+          <t xml:space="preserve">rt coba diurut dari prioritas kamu dalam mencari pasangan sifat setia rajindsb kebiasaan jam kerja pola makan </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'lebih', 'ke', 'titik', 'pasrah', 'aja', 'sekarang', 'ada', 'yg', 'nyakitin', 'tinggal', 'jauhin', 'ada', 'yg', 'pergi', 'silakan', 'ada', 'yg', 'mau', 'bertemen', 'sini', 'welcome']</t>
+          <t>['rt', 'coba', 'diurut', 'dari', 'prioritas', 'kamu', 'dalam', 'mencari', 'pasangan', 'sifat', 'setia', 'rajindsb', 'kebiasaan', 'jam', 'kerja', 'pola', 'makan']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'coba', 'diurut', 'dari', 'prioritas', 'kamu', 'dalam', 'mencari', 'pasangan', 'sifat', 'setia', 'rajindsb', 'kebiasaan', 'jam', 'kerja', 'pola', 'makan']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['titik', 'pasrah', 'nyakitin', 'tinggal', 'jauhin', 'pergi', 'silakan', 'bertemen', 'welcome']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['titik', 'pasrah', 'nyakitin', 'tinggal', 'jauhin', 'pergi', 'sila', 'bertemen', 'welcome']</t>
+          <t>['coba', 'diurut', 'prioritas', 'mencari', 'pasangan', 'sifat', 'setia', 'rajindsb', 'kebiasaan', 'jam', 'kerja', 'pola', 'makan']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['coba', 'urut', 'prioritas', 'cari', 'pasang', 'sifat', 'setia', 'rajindsb', 'biasa', 'jam', 'kerja', 'pola', 'makan']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15645</v>
+        <v>26412</v>
       </c>
       <c r="C97" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt lagi difase aku terjebak di antara aku harus nabung dan aku pengen beli ini itu</t>
+          <t>rt mood cwe akan bagus ketika diajak makan dan keliling kota</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'lagi', 'difase', 'aku', 'terjebak', 'di', 'antara', 'aku', 'harus', 'nabung', 'dan', 'aku', 'pengen', 'beli', 'ini', 'itu']</t>
+          <t>['rt', 'mood', 'cwe', 'akan', 'bagus', 'ketika', 'diajak', 'makan', 'dan', 'keliling', 'kota']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'suasana, hati', 'cewek', 'akan', 'bagus', 'ketika', 'diajak', 'makan', 'dan', 'keliling', 'kota']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['difase', 'terjebak', 'nabung', 'pengen', 'beli']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['fase', 'jebak', 'nabung', 'ken', 'beli']</t>
+          <t>['suasana, hati', 'cewek', 'bagus', 'diajak', 'makan', 'keliling', 'kota']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['suasana hati', 'cewek', 'bagus', 'ajak', 'makan', 'keliling', 'kota']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15646</v>
+        <v>26413</v>
       </c>
       <c r="C98" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>cilokkk</t>
+          <t>rt banyak platform media sosial baru tapi twitter tetep tempat terbaik buat berkeluh kesah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['cilokkk']</t>
+          <t>['rt', 'banyak', 'platform', 'media', 'sosial', 'baru', 'tapi', 'twitter', 'tetep', 'tempat', 'terbaik', 'buat', 'berkeluh', 'kesah']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'banyak', 'platform', 'media', 'sosial', 'baru', 'tapi', 'twitter', 'tetap', 'tempat', 'terbaik', 'buat', 'berkeluh', 'kesah']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['cilokkk']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['cilokkk']</t>
+          <t>['platform', 'media', 'sosial', 'twitter', 'terbaik', 'berkeluh', 'kesah']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['platform', 'media', 'sosial', 'twitter', 'baik', 'keluh', 'kesah']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4453,121 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15647</v>
+        <v>26414</v>
       </c>
       <c r="C99" t="n">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>mantab ukhti</t>
+          <t>rt prioritas utama sekarang adalah bertahan hidup</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['mantab', 'ukhti']</t>
+          <t>['rt', 'prioritas', 'utama', 'sekarang', 'adalah', 'bertahan', 'hidup']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'prioritas', 'utama', 'sekarang', 'adalah', 'bertahan', 'hidup']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['mantab', 'ukhti']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['mantab', 'ukhti']</t>
+          <t>['prioritas', 'utama', 'bertahan', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['prioritas', 'utama', 'tahan', 'hidup']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>26415</v>
+      </c>
+      <c r="C100" t="n">
+        <v>313</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>semoga tidak berkurang atau hilang</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['semoga', 'tidak', 'berkurang', 'atau', 'hilang']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['semoga', 'tidak', 'berkurang', 'atau', 'hilang']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['semoga', 'berkurang', 'hilang']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['moga', 'kurang', 'hilang']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>26416</v>
+      </c>
+      <c r="C101" t="n">
+        <v>313</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>apapun keputusannya harus siap</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['apapun', 'keputusannya', 'harus', 'siap']</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['apapun', 'keputusannya', 'harus', 'siap']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['apapun', 'keputusannya']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['apa', 'putus']</t>
         </is>
       </c>
     </row>
